--- a/predicoes.xlsx
+++ b/predicoes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="446">
   <si>
     <t>Saldo</t>
   </si>
@@ -61,13 +61,13 @@
     <t>Newcastle United</t>
   </si>
   <si>
-    <t>71.33%</t>
-  </si>
-  <si>
-    <t>37.64%</t>
-  </si>
-  <si>
-    <t>2.96%</t>
+    <t>63.72%</t>
+  </si>
+  <si>
+    <t>4.38%</t>
+  </si>
+  <si>
+    <t>0.85%</t>
   </si>
   <si>
     <t>16:00</t>
@@ -82,754 +82,661 @@
     <t>Wolverhampton</t>
   </si>
   <si>
-    <t>35.74%</t>
+    <t>0.92%</t>
+  </si>
+  <si>
+    <t>31.69%</t>
+  </si>
+  <si>
+    <t>32.71%</t>
+  </si>
+  <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
+  </si>
+  <si>
+    <t>0.61%</t>
+  </si>
+  <si>
+    <t>79.60%</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>96.96%</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>21.25%</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>77.81%</t>
+  </si>
+  <si>
+    <t>90.69%</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>98.65%</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>0.60%</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>53.24%</t>
+  </si>
+  <si>
+    <t>0.03%</t>
+  </si>
+  <si>
+    <t>94.29%</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>Real Betis Balompié</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>4.75%</t>
+  </si>
+  <si>
+    <t>97.52%</t>
+  </si>
+  <si>
+    <t>0.30%</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>2.68%</t>
+  </si>
+  <si>
+    <t>55.01%</t>
+  </si>
+  <si>
+    <t>23.75%</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>0.65%</t>
+  </si>
+  <si>
+    <t>40.38%</t>
+  </si>
+  <si>
+    <t>1.73%</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>Bayer 04 Leverkusen</t>
+  </si>
+  <si>
+    <t>1. FC Köln</t>
+  </si>
+  <si>
+    <t>1.65%</t>
+  </si>
+  <si>
+    <t>99.94%</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>Borussia Dortmund</t>
+  </si>
+  <si>
+    <t>Arminia Bielefeld</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>77.37%</t>
+  </si>
+  <si>
+    <t>6.33%</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>VfL Bochum</t>
+  </si>
+  <si>
+    <t>27.21%</t>
+  </si>
+  <si>
+    <t>92.33%</t>
+  </si>
+  <si>
+    <t>0.02%</t>
+  </si>
+  <si>
+    <t>SpVgg Greuther Fürth</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>49.84%</t>
+  </si>
+  <si>
+    <t>6.82%</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>1.14%</t>
+  </si>
+  <si>
+    <t>82.95%</t>
+  </si>
+  <si>
+    <t>2.24%</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>1.23%</t>
+  </si>
+  <si>
+    <t>93.67%</t>
+  </si>
+  <si>
+    <t>0.79%</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>22.34%</t>
+  </si>
+  <si>
+    <t>0.40%</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>82.26%</t>
+  </si>
+  <si>
+    <t>18.76%</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>80.22%</t>
+  </si>
+  <si>
+    <t>34.75%</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>Paris Saint-Germain</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>99.70%</t>
+  </si>
+  <si>
+    <t>3.25%</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Stade de Reims</t>
+  </si>
+  <si>
+    <t>99.50%</t>
+  </si>
+  <si>
+    <t>51.52%</t>
+  </si>
+  <si>
+    <t>Clermont Foot 63</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>25.18%</t>
+  </si>
+  <si>
+    <t>13.83%</t>
+  </si>
+  <si>
+    <t>17.66%</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>RC Lens</t>
+  </si>
+  <si>
+    <t>21.67%</t>
+  </si>
+  <si>
+    <t>10.29%</t>
+  </si>
+  <si>
+    <t>13.90%</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>2.12%</t>
+  </si>
+  <si>
+    <t>70.20%</t>
+  </si>
+  <si>
+    <t>Olympique Lyonnais</t>
+  </si>
+  <si>
+    <t>Stade Rennais</t>
+  </si>
+  <si>
+    <t>95.39%</t>
   </si>
   <si>
     <t>40.45%</t>
   </si>
   <si>
-    <t>26.45%</t>
-  </si>
-  <si>
-    <t>Leeds United</t>
-  </si>
-  <si>
-    <t>Norwich City</t>
-  </si>
-  <si>
-    <t>55.04%</t>
-  </si>
-  <si>
-    <t>21.81%</t>
-  </si>
-  <si>
-    <t>22.27%</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>64.43%</t>
-  </si>
-  <si>
-    <t>16.25%</t>
-  </si>
-  <si>
-    <t>23.50%</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>55.94%</t>
-  </si>
-  <si>
-    <t>37.68%</t>
-  </si>
-  <si>
-    <t>5.67%</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Leicester City</t>
-  </si>
-  <si>
-    <t>66.30%</t>
-  </si>
-  <si>
-    <t>31.91%</t>
-  </si>
-  <si>
-    <t>8.77%</t>
-  </si>
-  <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>29.20%</t>
-  </si>
-  <si>
-    <t>16.68%</t>
-  </si>
-  <si>
-    <t>57.56%</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>Real Betis Balompié</t>
-  </si>
-  <si>
-    <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>43.17%</t>
-  </si>
-  <si>
-    <t>23.23%</t>
-  </si>
-  <si>
-    <t>24.95%</t>
-  </si>
-  <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
-    <t>Deportivo Alavés</t>
-  </si>
-  <si>
-    <t>47.50%</t>
-  </si>
-  <si>
-    <t>22.97%</t>
-  </si>
-  <si>
-    <t>23.96%</t>
-  </si>
-  <si>
-    <t>19:30</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>48.70%</t>
-  </si>
-  <si>
-    <t>37.00%</t>
-  </si>
-  <si>
-    <t>14.63%</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>Bayer 04 Leverkusen</t>
-  </si>
-  <si>
-    <t>1. FC Köln</t>
-  </si>
-  <si>
-    <t>38.02%</t>
-  </si>
-  <si>
-    <t>50.18%</t>
-  </si>
-  <si>
-    <t>11.26%</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>Borussia Dortmund</t>
-  </si>
-  <si>
-    <t>Arminia Bielefeld</t>
-  </si>
-  <si>
-    <t>62.09%</t>
-  </si>
-  <si>
-    <t>20.42%</t>
-  </si>
-  <si>
-    <t>8.49%</t>
-  </si>
-  <si>
-    <t>Eintracht Frankfurt</t>
-  </si>
-  <si>
-    <t>VfL Bochum</t>
-  </si>
-  <si>
-    <t>48.18%</t>
-  </si>
-  <si>
-    <t>31.76%</t>
-  </si>
-  <si>
-    <t>17.45%</t>
-  </si>
-  <si>
-    <t>SpVgg Greuther Fürth</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>2.33%</t>
-  </si>
-  <si>
-    <t>48.61%</t>
-  </si>
-  <si>
-    <t>55.26%</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>55.70%</t>
-  </si>
-  <si>
-    <t>27.12%</t>
-  </si>
-  <si>
-    <t>13.07%</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>18.68%</t>
-  </si>
-  <si>
-    <t>46.06%</t>
-  </si>
-  <si>
-    <t>31.18%</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>66.79%</t>
-  </si>
-  <si>
-    <t>44.60%</t>
-  </si>
-  <si>
-    <t>4.53%</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>12.79%</t>
-  </si>
-  <si>
-    <t>30.81%</t>
-  </si>
-  <si>
-    <t>60.99%</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>9.42%</t>
-  </si>
-  <si>
-    <t>48.49%</t>
+    <t>18:05</t>
+  </si>
+  <si>
+    <t>Stade Brestois 29</t>
+  </si>
+  <si>
+    <t>Olympique de Marseille</t>
+  </si>
+  <si>
+    <t>4.81%</t>
+  </si>
+  <si>
+    <t>18.03%</t>
+  </si>
+  <si>
+    <t>CS Marítimo</t>
+  </si>
+  <si>
+    <t>Vitória SC</t>
+  </si>
+  <si>
+    <t>0.74%</t>
+  </si>
+  <si>
+    <t>35.99%</t>
+  </si>
+  <si>
+    <t>41.96%</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>FC Porto</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>99.89%</t>
+  </si>
+  <si>
+    <t>0.36%</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>Sporting Braga</t>
+  </si>
+  <si>
+    <t>Gil Vicente FC</t>
+  </si>
+  <si>
+    <t>34.17%</t>
+  </si>
+  <si>
+    <t>65.62%</t>
+  </si>
+  <si>
+    <t>0.75%</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>FC Utrecht</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>0.88%</t>
+  </si>
+  <si>
+    <t>5.25%</t>
+  </si>
+  <si>
+    <t>3.24%</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>Heracles Almelo</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>54.51%</t>
+  </si>
+  <si>
+    <t>81.91%</t>
+  </si>
+  <si>
+    <t>PEC Zwolle</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>96.82%</t>
+  </si>
+  <si>
+    <t>89.06%</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>FC Twente</t>
+  </si>
+  <si>
+    <t>0.53%</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>Krylya Sovetov Samara</t>
+  </si>
+  <si>
+    <t>Zenit St. Petersburg</t>
+  </si>
+  <si>
+    <t>85.35%</t>
+  </si>
+  <si>
+    <t>89.71%</t>
+  </si>
+  <si>
+    <t>Spartak Moscow</t>
+  </si>
+  <si>
+    <t>FC Krasnodar</t>
+  </si>
+  <si>
+    <t>0.32%</t>
+  </si>
+  <si>
+    <t>75.43%</t>
+  </si>
+  <si>
+    <t>88.75%</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Adana Demirspor</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>82.07%</t>
+  </si>
+  <si>
+    <t>1.62%</t>
+  </si>
+  <si>
+    <t>2.13%</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
+    <t>50.69%</t>
+  </si>
+  <si>
+    <t>0.16%</t>
+  </si>
+  <si>
+    <t>59.63%</t>
+  </si>
+  <si>
+    <t>RSC Anderlecht</t>
+  </si>
+  <si>
+    <t>Royal Antwerp FC</t>
+  </si>
+  <si>
+    <t>9.19%</t>
+  </si>
+  <si>
+    <t>99.93%</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>KRC Genk</t>
+  </si>
+  <si>
+    <t>Sint-Truidense VV</t>
+  </si>
+  <si>
+    <t>84.99%</t>
+  </si>
+  <si>
+    <t>2.67%</t>
+  </si>
+  <si>
+    <t>0.14%</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>K. Beerschot V.A.</t>
+  </si>
+  <si>
+    <t>KAA Gent</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>99.99%</t>
+  </si>
+  <si>
+    <t>Standard Liège</t>
+  </si>
+  <si>
+    <t>RFC Seraing</t>
+  </si>
+  <si>
+    <t>97.87%</t>
+  </si>
+  <si>
+    <t>1.28%</t>
+  </si>
+  <si>
+    <t>Toluca</t>
+  </si>
+  <si>
+    <t>Pachuca</t>
+  </si>
+  <si>
+    <t>55.79%</t>
+  </si>
+  <si>
+    <t>4.26%</t>
+  </si>
+  <si>
+    <t>13.82%</t>
+  </si>
+  <si>
+    <t>Atlanta United FC</t>
+  </si>
+  <si>
+    <t>Charlotte FC</t>
+  </si>
+  <si>
+    <t>66.94%</t>
+  </si>
+  <si>
+    <t>0.93%</t>
   </si>
   <si>
     <t>55.83%</t>
   </si>
   <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>Paris Saint-Germain</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>73.62%</t>
-  </si>
-  <si>
-    <t>28.44%</t>
-  </si>
-  <si>
-    <t>4.92%</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Stade de Reims</t>
-  </si>
-  <si>
-    <t>19.35%</t>
-  </si>
-  <si>
-    <t>43.81%</t>
-  </si>
-  <si>
-    <t>Clermont Foot 63</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>55.27%</t>
-  </si>
-  <si>
-    <t>36.81%</t>
-  </si>
-  <si>
-    <t>10.21%</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>RC Lens</t>
-  </si>
-  <si>
-    <t>11.89%</t>
-  </si>
-  <si>
-    <t>33.95%</t>
-  </si>
-  <si>
-    <t>40.53%</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>41.23%</t>
-  </si>
-  <si>
-    <t>40.52%</t>
-  </si>
-  <si>
-    <t>12.98%</t>
-  </si>
-  <si>
-    <t>Olympique Lyonnais</t>
-  </si>
-  <si>
-    <t>Stade Rennais</t>
-  </si>
-  <si>
-    <t>18.01%</t>
-  </si>
-  <si>
-    <t>22.82%</t>
-  </si>
-  <si>
-    <t>57.97%</t>
-  </si>
-  <si>
-    <t>18:05</t>
-  </si>
-  <si>
-    <t>Stade Brestois 29</t>
-  </si>
-  <si>
-    <t>Olympique de Marseille</t>
-  </si>
-  <si>
-    <t>21.34%</t>
-  </si>
-  <si>
-    <t>32.65%</t>
-  </si>
-  <si>
-    <t>34.08%</t>
-  </si>
-  <si>
-    <t>CS Marítimo</t>
-  </si>
-  <si>
-    <t>Vitória SC</t>
-  </si>
-  <si>
-    <t>13.77%</t>
-  </si>
-  <si>
-    <t>22.38%</t>
-  </si>
-  <si>
-    <t>64.75%</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>FC Porto</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>80.04%</t>
-  </si>
-  <si>
-    <t>29.33%</t>
-  </si>
-  <si>
-    <t>2.87%</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>Sporting Braga</t>
-  </si>
-  <si>
-    <t>Gil Vicente FC</t>
-  </si>
-  <si>
-    <t>62.02%</t>
-  </si>
-  <si>
-    <t>19.58%</t>
-  </si>
-  <si>
-    <t>17.86%</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>Fortuna Sittard</t>
-  </si>
-  <si>
-    <t>Willem II Tilburg</t>
-  </si>
-  <si>
-    <t>45.14%</t>
-  </si>
-  <si>
-    <t>26.77%</t>
-  </si>
-  <si>
-    <t>30.47%</t>
-  </si>
-  <si>
-    <t>13:15</t>
-  </si>
-  <si>
-    <t>FC Utrecht</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>17.88%</t>
-  </si>
-  <si>
-    <t>33.46%</t>
-  </si>
-  <si>
-    <t>30.12%</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>Heracles Almelo</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>30.69%</t>
-  </si>
-  <si>
-    <t>30.41%</t>
-  </si>
-  <si>
-    <t>29.28%</t>
-  </si>
-  <si>
-    <t>PEC Zwolle</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>2.35%</t>
-  </si>
-  <si>
-    <t>41.87%</t>
-  </si>
-  <si>
-    <t>71.50%</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>FC Twente</t>
-  </si>
-  <si>
-    <t>67.99%</t>
-  </si>
-  <si>
-    <t>35.31%</t>
-  </si>
-  <si>
-    <t>3.98%</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>FK Khimki</t>
-  </si>
-  <si>
-    <t>FC Sochi</t>
-  </si>
-  <si>
-    <t>21.03%</t>
-  </si>
-  <si>
-    <t>41.57%</t>
-  </si>
-  <si>
-    <t>38.59%</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>Krylya Sovetov Samara</t>
-  </si>
-  <si>
-    <t>Zenit St. Petersburg</t>
-  </si>
-  <si>
-    <t>18.84%</t>
-  </si>
-  <si>
-    <t>40.34%</t>
-  </si>
-  <si>
-    <t>43.59%</t>
-  </si>
-  <si>
-    <t>Spartak Moscow</t>
-  </si>
-  <si>
-    <t>FC Krasnodar</t>
-  </si>
-  <si>
-    <t>25.52%</t>
-  </si>
-  <si>
-    <t>23.74%</t>
-  </si>
-  <si>
-    <t>48.57%</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>Kayserispor</t>
-  </si>
-  <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
-    <t>14.00%</t>
-  </si>
-  <si>
-    <t>15.21%</t>
-  </si>
-  <si>
-    <t>57.48%</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>Adana Demirspor</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>34.19%</t>
-  </si>
-  <si>
-    <t>21.39%</t>
-  </si>
-  <si>
-    <t>37.92%</t>
-  </si>
-  <si>
-    <t>Alanyaspor</t>
-  </si>
-  <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
-    <t>49.50%</t>
-  </si>
-  <si>
-    <t>30.92%</t>
-  </si>
-  <si>
-    <t>19.09%</t>
-  </si>
-  <si>
-    <t>RSC Anderlecht</t>
-  </si>
-  <si>
-    <t>Royal Antwerp FC</t>
-  </si>
-  <si>
-    <t>73.44%</t>
-  </si>
-  <si>
-    <t>40.31%</t>
-  </si>
-  <si>
-    <t>3.97%</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>KRC Genk</t>
-  </si>
-  <si>
-    <t>Sint-Truidense VV</t>
-  </si>
-  <si>
-    <t>76.84%</t>
-  </si>
-  <si>
-    <t>22.26%</t>
-  </si>
-  <si>
-    <t>7.06%</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>K. Beerschot V.A.</t>
-  </si>
-  <si>
-    <t>KAA Gent</t>
-  </si>
-  <si>
-    <t>3.82%</t>
-  </si>
-  <si>
-    <t>27.46%</t>
-  </si>
-  <si>
-    <t>70.18%</t>
-  </si>
-  <si>
-    <t>Standard Liège</t>
-  </si>
-  <si>
-    <t>RFC Seraing</t>
-  </si>
-  <si>
-    <t>65.58%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>15.97%</t>
-  </si>
-  <si>
-    <t>Toluca</t>
-  </si>
-  <si>
-    <t>Pachuca</t>
-  </si>
-  <si>
-    <t>44.32%</t>
-  </si>
-  <si>
-    <t>29.97%</t>
-  </si>
-  <si>
-    <t>Atlanta United FC</t>
-  </si>
-  <si>
-    <t>Charlotte FC</t>
-  </si>
-  <si>
-    <t>49.65%</t>
-  </si>
-  <si>
-    <t>23.72%</t>
-  </si>
-  <si>
-    <t>22.52%</t>
-  </si>
-  <si>
     <t>Luton Town</t>
   </si>
   <si>
     <t>Queens Park Rangers</t>
   </si>
   <si>
-    <t>39.52%</t>
-  </si>
-  <si>
-    <t>23.39%</t>
-  </si>
-  <si>
-    <t>32.88%</t>
+    <t>0.48%</t>
+  </si>
+  <si>
+    <t>72.55%</t>
+  </si>
+  <si>
+    <t>29.45%</t>
   </si>
   <si>
     <t>Burgos</t>
@@ -838,13 +745,10 @@
     <t>Real Sociedad B</t>
   </si>
   <si>
-    <t>42.85%</t>
-  </si>
-  <si>
-    <t>28.25%</t>
-  </si>
-  <si>
-    <t>26.61%</t>
+    <t>97.67%</t>
+  </si>
+  <si>
+    <t>1.69%</t>
   </si>
   <si>
     <t>Eibar</t>
@@ -853,10 +757,10 @@
     <t>SD Amorebieta</t>
   </si>
   <si>
-    <t>73.55%</t>
-  </si>
-  <si>
-    <t>25.08%</t>
+    <t>99.92%</t>
+  </si>
+  <si>
+    <t>0.06%</t>
   </si>
   <si>
     <t>Sporting Gijón</t>
@@ -865,10 +769,13 @@
     <t>Tenerife</t>
   </si>
   <si>
-    <t>49.24%</t>
-  </si>
-  <si>
-    <t>20.94%</t>
+    <t>5.05%</t>
+  </si>
+  <si>
+    <t>60.49%</t>
+  </si>
+  <si>
+    <t>0.90%</t>
   </si>
   <si>
     <t>Alcorcón</t>
@@ -877,13 +784,13 @@
     <t>Huesca</t>
   </si>
   <si>
-    <t>18.39%</t>
-  </si>
-  <si>
-    <t>36.78%</t>
-  </si>
-  <si>
-    <t>46.52%</t>
+    <t>1.06%</t>
+  </si>
+  <si>
+    <t>91.97%</t>
+  </si>
+  <si>
+    <t>4.18%</t>
   </si>
   <si>
     <t>19:15</t>
@@ -895,13 +802,7 @@
     <t>Real Valladolid</t>
   </si>
   <si>
-    <t>18.18%</t>
-  </si>
-  <si>
-    <t>34.33%</t>
-  </si>
-  <si>
-    <t>44.86%</t>
+    <t>1.47%</t>
   </si>
   <si>
     <t>FC Ingolstadt 04</t>
@@ -910,10 +811,13 @@
     <t>FC Schalke 04</t>
   </si>
   <si>
-    <t>9.10%</t>
-  </si>
-  <si>
-    <t>67.23%</t>
+    <t>0.09%</t>
+  </si>
+  <si>
+    <t>95.83%</t>
+  </si>
+  <si>
+    <t>11.92%</t>
   </si>
   <si>
     <t>Hannover 96</t>
@@ -922,13 +826,13 @@
     <t>1. FC Nürnberg</t>
   </si>
   <si>
-    <t>34.24%</t>
-  </si>
-  <si>
-    <t>28.60%</t>
-  </si>
-  <si>
-    <t>30.06%</t>
+    <t>0.12%</t>
+  </si>
+  <si>
+    <t>91.92%</t>
+  </si>
+  <si>
+    <t>62.81%</t>
   </si>
   <si>
     <t>Karlsruher SC</t>
@@ -937,13 +841,10 @@
     <t>SSV Jahn Regensburg</t>
   </si>
   <si>
-    <t>60.92%</t>
-  </si>
-  <si>
-    <t>30.71%</t>
-  </si>
-  <si>
-    <t>12.46%</t>
+    <t>98.24%</t>
+  </si>
+  <si>
+    <t>10.24%</t>
   </si>
   <si>
     <t>Pisa</t>
@@ -952,13 +853,13 @@
     <t>Cremonese</t>
   </si>
   <si>
-    <t>37.83%</t>
-  </si>
-  <si>
-    <t>31.69%</t>
-  </si>
-  <si>
-    <t>21.00%</t>
+    <t>5.31%</t>
+  </si>
+  <si>
+    <t>90.99%</t>
+  </si>
+  <si>
+    <t>6.37%</t>
   </si>
   <si>
     <t>Austria Klagenfurt</t>
@@ -967,13 +868,10 @@
     <t>SK Rapid Wien</t>
   </si>
   <si>
-    <t>21.76%</t>
-  </si>
-  <si>
-    <t>22.41%</t>
-  </si>
-  <si>
-    <t>39.32%</t>
+    <t>4.14%</t>
+  </si>
+  <si>
+    <t>56.72%</t>
   </si>
   <si>
     <t>Austria Wien</t>
@@ -982,13 +880,13 @@
     <t>Wolfsberger AC</t>
   </si>
   <si>
-    <t>58.23%</t>
-  </si>
-  <si>
-    <t>20.13%</t>
-  </si>
-  <si>
-    <t>21.19%</t>
+    <t>63.58%</t>
+  </si>
+  <si>
+    <t>62.61%</t>
+  </si>
+  <si>
+    <t>0.31%</t>
   </si>
   <si>
     <t>Red Bull Salzburg</t>
@@ -997,13 +895,13 @@
     <t>SK Sturm Graz</t>
   </si>
   <si>
-    <t>55.25%</t>
-  </si>
-  <si>
-    <t>33.84%</t>
-  </si>
-  <si>
-    <t>8.81%</t>
+    <t>30.23%</t>
+  </si>
+  <si>
+    <t>90.85%</t>
+  </si>
+  <si>
+    <t>0.07%</t>
   </si>
   <si>
     <t>LASK</t>
@@ -1012,13 +910,13 @@
     <t>WSG Tirol</t>
   </si>
   <si>
-    <t>52.75%</t>
-  </si>
-  <si>
-    <t>22.75%</t>
-  </si>
-  <si>
-    <t>18.79%</t>
+    <t>0.39%</t>
+  </si>
+  <si>
+    <t>90.47%</t>
+  </si>
+  <si>
+    <t>4.39%</t>
   </si>
   <si>
     <t>Mirassol Futebol Clube</t>
@@ -1027,13 +925,13 @@
     <t>São Paulo</t>
   </si>
   <si>
-    <t>32.42%</t>
-  </si>
-  <si>
-    <t>27.59%</t>
-  </si>
-  <si>
-    <t>37.01%</t>
+    <t>1.49%</t>
+  </si>
+  <si>
+    <t>83.87%</t>
+  </si>
+  <si>
+    <t>28.30%</t>
   </si>
   <si>
     <t>Palmeiras</t>
@@ -1042,13 +940,13 @@
     <t>Santos</t>
   </si>
   <si>
-    <t>65.92%</t>
-  </si>
-  <si>
-    <t>12.00%</t>
-  </si>
-  <si>
-    <t>21.80%</t>
+    <t>87.27%</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>51.57%</t>
   </si>
   <si>
     <t>23:30</t>
@@ -1060,13 +958,13 @@
     <t>O'Higgins</t>
   </si>
   <si>
-    <t>53.60%</t>
-  </si>
-  <si>
-    <t>16.84%</t>
-  </si>
-  <si>
-    <t>25.14%</t>
+    <t>91.78%</t>
+  </si>
+  <si>
+    <t>0.98%</t>
+  </si>
+  <si>
+    <t>9.56%</t>
   </si>
   <si>
     <t>23:00</t>
@@ -1078,13 +976,10 @@
     <t>HNK Rijeka</t>
   </si>
   <si>
-    <t>6.85%</t>
-  </si>
-  <si>
-    <t>27.77%</t>
-  </si>
-  <si>
-    <t>55.87%</t>
+    <t>18.65%</t>
+  </si>
+  <si>
+    <t>98.43%</t>
   </si>
   <si>
     <t>NK Osijek</t>
@@ -1093,28 +988,7 @@
     <t>HNK Gorica</t>
   </si>
   <si>
-    <t>65.93%</t>
-  </si>
-  <si>
-    <t>20.11%</t>
-  </si>
-  <si>
-    <t>15.32%</t>
-  </si>
-  <si>
-    <t>Jagiellonia Białystok</t>
-  </si>
-  <si>
-    <t>Wisła Płock</t>
-  </si>
-  <si>
-    <t>53.00%</t>
-  </si>
-  <si>
-    <t>35.79%</t>
-  </si>
-  <si>
-    <t>17.56%</t>
+    <t>98.75%</t>
   </si>
   <si>
     <t>Śląsk Wrocław</t>
@@ -1123,13 +997,10 @@
     <t>Radomiak Radom</t>
   </si>
   <si>
-    <t>37.31%</t>
-  </si>
-  <si>
-    <t>36.80%</t>
-  </si>
-  <si>
-    <t>22.12%</t>
+    <t>2.95%</t>
+  </si>
+  <si>
+    <t>98.98%</t>
   </si>
   <si>
     <t>Wisła Kraków</t>
@@ -1138,13 +1009,13 @@
     <t>Lech Poznań</t>
   </si>
   <si>
-    <t>7.22%</t>
-  </si>
-  <si>
-    <t>28.57%</t>
-  </si>
-  <si>
-    <t>71.53%</t>
+    <t>4.04%</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>93.80%</t>
   </si>
   <si>
     <t>Randers FC</t>
@@ -1153,13 +1024,10 @@
     <t>Silkeborg</t>
   </si>
   <si>
-    <t>46.17%</t>
-  </si>
-  <si>
-    <t>14.92%</t>
-  </si>
-  <si>
-    <t>37.55%</t>
+    <t>25.70%</t>
+  </si>
+  <si>
+    <t>8.50%</t>
   </si>
   <si>
     <t>Viborg FF</t>
@@ -1168,13 +1036,7 @@
     <t>Vejle</t>
   </si>
   <si>
-    <t>84.11%</t>
-  </si>
-  <si>
-    <t>13.48%</t>
-  </si>
-  <si>
-    <t>12.42%</t>
+    <t>98.63%</t>
   </si>
   <si>
     <t>Brøndby IF</t>
@@ -1183,13 +1045,10 @@
     <t>AGF</t>
   </si>
   <si>
-    <t>65.95%</t>
-  </si>
-  <si>
-    <t>16.57%</t>
-  </si>
-  <si>
-    <t>18.81%</t>
+    <t>99.90%</t>
+  </si>
+  <si>
+    <t>8.40%</t>
   </si>
   <si>
     <t>FC Midtjylland</t>
@@ -1198,13 +1057,10 @@
     <t>FC København</t>
   </si>
   <si>
-    <t>65.70%</t>
-  </si>
-  <si>
-    <t>15.89%</t>
-  </si>
-  <si>
-    <t>25.29%</t>
+    <t>96.92%</t>
+  </si>
+  <si>
+    <t>0.52%</t>
   </si>
   <si>
     <t>Sporting Cristal</t>
@@ -1213,13 +1069,13 @@
     <t>AD Cantolao</t>
   </si>
   <si>
-    <t>57.03%</t>
-  </si>
-  <si>
-    <t>22.44%</t>
-  </si>
-  <si>
-    <t>17.90%</t>
+    <t>87.49%</t>
+  </si>
+  <si>
+    <t>6.66%</t>
+  </si>
+  <si>
+    <t>1.48%</t>
   </si>
   <si>
     <t>Club Atlético Grau</t>
@@ -1228,13 +1084,13 @@
     <t>Universidad César Vallejo</t>
   </si>
   <si>
-    <t>47.46%</t>
-  </si>
-  <si>
-    <t>20.01%</t>
-  </si>
-  <si>
-    <t>31.73%</t>
+    <t>53.10%</t>
+  </si>
+  <si>
+    <t>6.55%</t>
+  </si>
+  <si>
+    <t>27.88%</t>
   </si>
   <si>
     <t>Sport Boys</t>
@@ -1243,79 +1099,79 @@
     <t>Deportivo Municipal</t>
   </si>
   <si>
-    <t>38.77%</t>
-  </si>
-  <si>
-    <t>22.58%</t>
+    <t>46.89%</t>
+  </si>
+  <si>
+    <t>11.43%</t>
+  </si>
+  <si>
+    <t>14.36%</t>
+  </si>
+  <si>
+    <t>20:15</t>
+  </si>
+  <si>
+    <t>Asociacion Deportiva Tarma</t>
+  </si>
+  <si>
+    <t>Sport Huancayo</t>
+  </si>
+  <si>
+    <t>2.32%</t>
+  </si>
+  <si>
+    <t>19.97%</t>
+  </si>
+  <si>
+    <t>86.28%</t>
+  </si>
+  <si>
+    <t>Ayacucho FC</t>
+  </si>
+  <si>
+    <t>Deportivo Binacional</t>
+  </si>
+  <si>
+    <t>23.48%</t>
+  </si>
+  <si>
+    <t>2.11%</t>
+  </si>
+  <si>
+    <t>67.29%</t>
+  </si>
+  <si>
+    <t>Al-Raed</t>
+  </si>
+  <si>
+    <t>Al-Hilal Saudi</t>
+  </si>
+  <si>
+    <t>0.56%</t>
+  </si>
+  <si>
+    <t>1.93%</t>
+  </si>
+  <si>
+    <t>96.52%</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>Al-Shabab</t>
+  </si>
+  <si>
+    <t>Al-Ittihad</t>
+  </si>
+  <si>
+    <t>18.58%</t>
   </si>
   <si>
     <t>34.41%</t>
   </si>
   <si>
-    <t>20:15</t>
-  </si>
-  <si>
-    <t>Asociacion Deportiva Tarma</t>
-  </si>
-  <si>
-    <t>Sport Huancayo</t>
-  </si>
-  <si>
-    <t>34.89%</t>
-  </si>
-  <si>
-    <t>28.92%</t>
-  </si>
-  <si>
-    <t>38.50%</t>
-  </si>
-  <si>
-    <t>Ayacucho FC</t>
-  </si>
-  <si>
-    <t>Deportivo Binacional</t>
-  </si>
-  <si>
-    <t>39.02%</t>
-  </si>
-  <si>
-    <t>21.96%</t>
-  </si>
-  <si>
-    <t>32.86%</t>
-  </si>
-  <si>
-    <t>Al-Raed</t>
-  </si>
-  <si>
-    <t>Al-Hilal Saudi</t>
-  </si>
-  <si>
-    <t>18.23%</t>
-  </si>
-  <si>
-    <t>35.63%</t>
-  </si>
-  <si>
-    <t>41.15%</t>
-  </si>
-  <si>
-    <t>17:50</t>
-  </si>
-  <si>
-    <t>Al-Shabab</t>
-  </si>
-  <si>
-    <t>Al-Ittihad</t>
-  </si>
-  <si>
-    <t>32.61%</t>
-  </si>
-  <si>
-    <t>30.36%</t>
-  </si>
-  <si>
-    <t>24.97%</t>
+    <t>5.58%</t>
   </si>
   <si>
     <t>19:45</t>
@@ -1327,13 +1183,10 @@
     <t>Young Boys</t>
   </si>
   <si>
-    <t>2.74%</t>
-  </si>
-  <si>
-    <t>27.73%</t>
-  </si>
-  <si>
-    <t>79.04%</t>
+    <t>94.24%</t>
+  </si>
+  <si>
+    <t>94.57%</t>
   </si>
   <si>
     <t>15:15</t>
@@ -1345,13 +1198,10 @@
     <t>Servette</t>
   </si>
   <si>
-    <t>52.68%</t>
-  </si>
-  <si>
-    <t>15.52%</t>
-  </si>
-  <si>
-    <t>32.30%</t>
+    <t>98.28%</t>
+  </si>
+  <si>
+    <t>1.33%</t>
   </si>
   <si>
     <t>FC Luzern</t>
@@ -1360,13 +1210,10 @@
     <t>Grasshopper Club Zürich</t>
   </si>
   <si>
-    <t>37.02%</t>
-  </si>
-  <si>
-    <t>23.91%</t>
-  </si>
-  <si>
-    <t>42.41%</t>
+    <t>98.69%</t>
+  </si>
+  <si>
+    <t>4.57%</t>
   </si>
   <si>
     <t>Zanaco</t>
@@ -1375,13 +1222,13 @@
     <t>Al-Ahli Tripoli</t>
   </si>
   <si>
-    <t>45.79%</t>
-  </si>
-  <si>
-    <t>18.92%</t>
-  </si>
-  <si>
-    <t>30.29%</t>
+    <t>42.36%</t>
+  </si>
+  <si>
+    <t>34.11%</t>
+  </si>
+  <si>
+    <t>9.39%</t>
   </si>
   <si>
     <t>CS Sfaxien</t>
@@ -1390,13 +1237,13 @@
     <t>Pyramids FC</t>
   </si>
   <si>
-    <t>42.25%</t>
-  </si>
-  <si>
-    <t>18.59%</t>
-  </si>
-  <si>
-    <t>40.08%</t>
+    <t>24.00%</t>
+  </si>
+  <si>
+    <t>4.48%</t>
+  </si>
+  <si>
+    <t>73.31%</t>
   </si>
   <si>
     <t>Orlando Pirates</t>
@@ -1405,13 +1252,10 @@
     <t>Royal Leopards FC</t>
   </si>
   <si>
-    <t>62.26%</t>
-  </si>
-  <si>
-    <t>16.93%</t>
-  </si>
-  <si>
-    <t>17.14%</t>
+    <t>78.40%</t>
+  </si>
+  <si>
+    <t>33.67%</t>
   </si>
   <si>
     <t>JS Saoura</t>
@@ -1420,13 +1264,10 @@
     <t>Al-Ittihad Tripoli</t>
   </si>
   <si>
-    <t>58.29%</t>
-  </si>
-  <si>
-    <t>15.14%</t>
-  </si>
-  <si>
-    <t>30.51%</t>
+    <t>82.79%</t>
+  </si>
+  <si>
+    <t>59.08%</t>
   </si>
   <si>
     <t>Coton Sport</t>
@@ -1435,13 +1276,13 @@
     <t>TP Mazembe</t>
   </si>
   <si>
-    <t>46.86%</t>
-  </si>
-  <si>
-    <t>16.09%</t>
-  </si>
-  <si>
-    <t>43.05%</t>
+    <t>12.09%</t>
+  </si>
+  <si>
+    <t>1.42%</t>
+  </si>
+  <si>
+    <t>90.02%</t>
   </si>
   <si>
     <t>Al-Masry</t>
@@ -1450,10 +1291,13 @@
     <t>AS Otohô</t>
   </si>
   <si>
-    <t>52.33%</t>
-  </si>
-  <si>
-    <t>24.42%</t>
+    <t>78.94%</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
+    <t>69.15%</t>
   </si>
   <si>
     <t>Simba SC</t>
@@ -1462,13 +1306,13 @@
     <t>RS Berkane</t>
   </si>
   <si>
-    <t>46.02%</t>
-  </si>
-  <si>
-    <t>21.60%</t>
-  </si>
-  <si>
-    <t>33.62%</t>
+    <t>15.83%</t>
+  </si>
+  <si>
+    <t>89.26%</t>
+  </si>
+  <si>
+    <t>1.76%</t>
   </si>
   <si>
     <t>ASEC Mimosas</t>
@@ -1477,10 +1321,13 @@
     <t>Gendarmerie Nationale</t>
   </si>
   <si>
-    <t>28.98%</t>
-  </si>
-  <si>
-    <t>25.40%</t>
+    <t>59.18%</t>
+  </si>
+  <si>
+    <t>18.85%</t>
+  </si>
+  <si>
+    <t>8.00%</t>
   </si>
   <si>
     <t>Lanús</t>
@@ -1489,13 +1336,13 @@
     <t>Colón de Santa Fe</t>
   </si>
   <si>
-    <t>57.98%</t>
-  </si>
-  <si>
-    <t>21.44%</t>
-  </si>
-  <si>
-    <t>21.45%</t>
+    <t>79.43%</t>
+  </si>
+  <si>
+    <t>3.68%</t>
+  </si>
+  <si>
+    <t>8.35%</t>
   </si>
   <si>
     <t>Unión de Santa Fe</t>
@@ -1504,13 +1351,13 @@
     <t>Banfield</t>
   </si>
   <si>
-    <t>53.99%</t>
-  </si>
-  <si>
-    <t>16.29%</t>
-  </si>
-  <si>
-    <t>30.27%</t>
+    <t>68.05%</t>
+  </si>
+  <si>
+    <t>1.71%</t>
+  </si>
+  <si>
+    <t>42.61%</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1781,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1986,21 +1833,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2132,7 +1976,7 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -2143,22 +1987,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -2166,22 +2010,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2189,22 +2033,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -2212,22 +2056,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -2235,22 +2079,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -2258,22 +2102,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -2281,22 +2125,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>76</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>77</v>
       </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -2304,22 +2148,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>81</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>82</v>
       </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -2327,22 +2171,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>86</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -2350,22 +2194,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
         <v>90</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>92</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -2373,19 +2217,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
         <v>96</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" t="s">
-        <v>100</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -2396,22 +2240,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
         <v>101</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" t="s">
-        <v>106</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
@@ -2419,22 +2263,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>109</v>
       </c>
-      <c r="D19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" t="s">
-        <v>111</v>
-      </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -2442,22 +2286,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
         <v>112</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>113</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>114</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>115</v>
-      </c>
-      <c r="E20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" t="s">
-        <v>117</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -2465,22 +2309,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
         <v>118</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>119</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
         <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" t="s">
-        <v>123</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -2488,19 +2332,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
         <v>124</v>
-      </c>
-      <c r="B22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" t="s">
-        <v>100</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -2511,19 +2355,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
         <v>128</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>129</v>
-      </c>
-      <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" t="s">
-        <v>132</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -2534,19 +2378,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
         <v>133</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E24" t="s">
         <v>134</v>
-      </c>
-      <c r="C24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" t="s">
-        <v>137</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -2557,19 +2401,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
         <v>138</v>
       </c>
-      <c r="B25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" t="s">
-        <v>141</v>
-      </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -2580,22 +2424,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" t="s">
         <v>143</v>
-      </c>
-      <c r="B26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" t="s">
-        <v>148</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
@@ -2603,22 +2447,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -2626,22 +2470,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
@@ -2649,22 +2493,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -2672,22 +2516,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
@@ -2695,22 +2539,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
@@ -2718,22 +2562,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -2741,22 +2585,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -2764,22 +2608,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -2787,22 +2631,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
@@ -2810,22 +2654,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
@@ -2833,22 +2677,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D37" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
@@ -2856,22 +2700,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F38" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
@@ -2879,22 +2723,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -2902,22 +2746,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -2925,22 +2769,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -2948,22 +2792,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E42" t="s">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -2971,22 +2815,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B43" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E43" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -2994,22 +2838,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B44" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E44" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -3017,22 +2861,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C45" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E45" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
@@ -3040,22 +2884,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C46" t="s">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="E46" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F46" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
@@ -3063,22 +2907,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="E47" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="F47" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -3086,22 +2930,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C48" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D48" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F48" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -3109,22 +2953,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D49" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E49" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
@@ -3132,22 +2976,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C50" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="F50" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -3155,22 +2999,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="B51" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="D51" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="E51" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F51" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -3178,22 +3022,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="D52" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E52" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F52" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -3201,22 +3045,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B53" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C53" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D53" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="F53" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -3224,22 +3068,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="B54" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C54" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="E54" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="F54" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -3247,22 +3091,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D55" t="s">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="E55" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="F55" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
@@ -3270,22 +3114,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B56" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C56" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="D56" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E56" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F56" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
@@ -3293,22 +3137,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B57" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C57" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D57" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E57" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
@@ -3316,22 +3160,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C58" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D58" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="E58" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F58" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
@@ -3339,22 +3183,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B59" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C59" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D59" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E59" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
@@ -3362,22 +3206,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="B60" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C60" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="D60" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="E60" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="F60" t="s">
-        <v>217</v>
+        <v>309</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
@@ -3385,22 +3229,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B61" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="C61" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D61" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="E61" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F61" t="s">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="G61" t="s">
         <v>17</v>
@@ -3408,22 +3252,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C62" t="s">
-        <v>335</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="E62" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
         <v>17</v>
@@ -3431,22 +3275,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C63" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D63" t="s">
-        <v>341</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>342</v>
+        <v>53</v>
       </c>
       <c r="F63" t="s">
-        <v>343</v>
+        <v>143</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
@@ -3454,22 +3298,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C64" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="D64" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="E64" t="s">
-        <v>348</v>
+        <v>112</v>
       </c>
       <c r="F64" t="s">
-        <v>349</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
         <v>17</v>
@@ -3477,22 +3321,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="C65" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D65" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E65" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
@@ -3500,22 +3344,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="B66" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="C66" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="D66" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="E66" t="s">
-        <v>359</v>
+        <v>191</v>
       </c>
       <c r="F66" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
@@ -3523,22 +3367,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="B67" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C67" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D67" t="s">
-        <v>363</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>364</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s">
         <v>17</v>
@@ -3546,22 +3390,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="C68" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="D68" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="E68" t="s">
-        <v>369</v>
+        <v>71</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="G68" t="s">
         <v>17</v>
@@ -3569,22 +3413,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="B69" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="C69" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="D69" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="E69" t="s">
-        <v>374</v>
+        <v>137</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G69" t="s">
         <v>17</v>
@@ -3592,22 +3436,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="B70" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="C70" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="D70" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="E70" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="G70" t="s">
         <v>17</v>
@@ -3615,22 +3459,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="B71" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="D71" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="E71" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="G71" t="s">
         <v>17</v>
@@ -3638,22 +3482,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="C72" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="D72" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="E72" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="F72" t="s">
-        <v>245</v>
+        <v>362</v>
       </c>
       <c r="G72" t="s">
         <v>17</v>
@@ -3661,22 +3505,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B73" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="C73" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="D73" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="E73" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="F73" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="G73" t="s">
         <v>17</v>
@@ -3684,22 +3528,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="B74" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="C74" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="D74" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="E74" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="F74" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="G74" t="s">
         <v>17</v>
@@ -3707,22 +3551,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="B75" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="C75" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="D75" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="E75" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="F75" t="s">
-        <v>165</v>
+        <v>378</v>
       </c>
       <c r="G75" t="s">
         <v>17</v>
@@ -3730,22 +3574,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="B76" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="C76" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="D76" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="E76" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="F76" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G76" t="s">
         <v>17</v>
@@ -3753,22 +3597,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="B77" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="C77" t="s">
-        <v>413</v>
+        <v>71</v>
       </c>
       <c r="D77" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="E77" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
+        <v>389</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
@@ -3776,22 +3620,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="B78" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="C78" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="D78" t="s">
-        <v>419</v>
+        <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="F78" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="G78" t="s">
         <v>17</v>
@@ -3799,22 +3643,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="B79" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="C79" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="D79" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="E79" t="s">
-        <v>425</v>
+        <v>214</v>
       </c>
       <c r="F79" t="s">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
@@ -3822,22 +3666,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="B80" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="C80" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="D80" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="E80" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="F80" t="s">
-        <v>432</v>
+        <v>48</v>
       </c>
       <c r="G80" t="s">
         <v>17</v>
@@ -3845,22 +3689,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="B81" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="C81" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="D81" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="E81" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="F81" t="s">
-        <v>438</v>
+        <v>184</v>
       </c>
       <c r="G81" t="s">
         <v>17</v>
@@ -3868,22 +3712,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="B82" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="C82" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="D82" t="s">
-        <v>442</v>
+        <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="F82" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="G82" t="s">
         <v>17</v>
@@ -3891,22 +3735,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="B83" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="C83" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="D83" t="s">
-        <v>447</v>
+        <v>263</v>
       </c>
       <c r="E83" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="F83" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="G83" t="s">
         <v>17</v>
@@ -3914,22 +3758,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="B84" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="C84" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="D84" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="E84" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G84" t="s">
         <v>17</v>
@@ -3937,22 +3781,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="B85" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="C85" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D85" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="E85" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="F85" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G85" t="s">
         <v>17</v>
@@ -3960,22 +3804,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="B86" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="C86" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="D86" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="E86" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="F86" t="s">
-        <v>217</v>
+        <v>48</v>
       </c>
       <c r="G86" t="s">
         <v>17</v>
@@ -3983,22 +3827,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="B87" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="C87" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="D87" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="E87" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="F87" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G87" t="s">
         <v>17</v>
@@ -4006,22 +3850,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="B88" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="C88" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="D88" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="E88" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="F88" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G88" t="s">
         <v>17</v>
@@ -4029,116 +3873,24 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="B89" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="C89" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="D89" t="s">
-        <v>53</v>
+        <v>444</v>
       </c>
       <c r="E89" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="F89" t="s">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>478</v>
-      </c>
-      <c r="B90" t="s">
-        <v>479</v>
-      </c>
-      <c r="C90" t="s">
-        <v>480</v>
-      </c>
-      <c r="D90" t="s">
-        <v>481</v>
-      </c>
-      <c r="E90" t="s">
-        <v>482</v>
-      </c>
-      <c r="F90" t="s">
-        <v>49</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>483</v>
-      </c>
-      <c r="B91" t="s">
-        <v>484</v>
-      </c>
-      <c r="C91" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" t="s">
-        <v>485</v>
-      </c>
-      <c r="E91" t="s">
-        <v>486</v>
-      </c>
-      <c r="F91" t="s">
-        <v>217</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>487</v>
-      </c>
-      <c r="B92" t="s">
-        <v>488</v>
-      </c>
-      <c r="C92" t="s">
-        <v>489</v>
-      </c>
-      <c r="D92" t="s">
-        <v>490</v>
-      </c>
-      <c r="E92" t="s">
-        <v>491</v>
-      </c>
-      <c r="F92" t="s">
-        <v>67</v>
-      </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>492</v>
-      </c>
-      <c r="B93" t="s">
-        <v>493</v>
-      </c>
-      <c r="C93" t="s">
-        <v>494</v>
-      </c>
-      <c r="D93" t="s">
-        <v>495</v>
-      </c>
-      <c r="E93" t="s">
-        <v>496</v>
-      </c>
-      <c r="F93" t="s">
-        <v>67</v>
-      </c>
-      <c r="G93" t="s">
         <v>17</v>
       </c>
     </row>

--- a/predicoes.xlsx
+++ b/predicoes.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="13-03-2022" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="14-03-2022" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="14-03-2022" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="15-03-2022" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -21,7 +21,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -45,6 +45,11 @@
       <color theme="1" tint="0.499984740745262"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -82,7 +87,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -149,6 +154,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -172,7 +192,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -184,6 +203,9 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -556,7 +578,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -572,7 +594,7 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>271.19</v>
+        <v>284.17</v>
       </c>
     </row>
     <row r="2">
@@ -692,7 +714,7 @@
       <c r="E2" s="10" t="n">
         <v>0.2815</v>
       </c>
-      <c r="F2" s="13" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
@@ -723,7 +745,7 @@
       <c r="E3" s="10" t="n">
         <v>0.7584</v>
       </c>
-      <c r="F3" s="13" t="inlineStr">
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>15:15</t>
         </is>
@@ -754,7 +776,7 @@
       <c r="E4" s="10" t="n">
         <v>0.4554</v>
       </c>
-      <c r="F4" s="13" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
@@ -785,7 +807,7 @@
       <c r="E5" s="10" t="n">
         <v>0.252</v>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
@@ -816,7 +838,7 @@
       <c r="E6" s="10" t="n">
         <v>0.433</v>
       </c>
-      <c r="F6" s="13" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
@@ -847,7 +869,7 @@
       <c r="E7" s="10" t="n">
         <v>0.3084</v>
       </c>
-      <c r="F7" s="13" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
@@ -878,7 +900,7 @@
       <c r="E8" s="10" t="n">
         <v>0.1149</v>
       </c>
-      <c r="F8" s="13" t="inlineStr">
+      <c r="F8" s="12" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
@@ -909,7 +931,7 @@
       <c r="E9" s="10" t="n">
         <v>0.3052</v>
       </c>
-      <c r="F9" s="13" t="inlineStr">
+      <c r="F9" s="12" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
@@ -940,7 +962,7 @@
       <c r="E10" s="10" t="n">
         <v>0.006</v>
       </c>
-      <c r="F10" s="13" t="inlineStr">
+      <c r="F10" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -971,7 +993,7 @@
       <c r="E11" s="10" t="n">
         <v>0.1656</v>
       </c>
-      <c r="F11" s="13" t="inlineStr">
+      <c r="F11" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -1002,7 +1024,7 @@
       <c r="E12" s="10" t="n">
         <v>0.0694</v>
       </c>
-      <c r="F12" s="13" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -1033,7 +1055,7 @@
       <c r="E13" s="10" t="n">
         <v>0.4831</v>
       </c>
-      <c r="F13" s="13" t="inlineStr">
+      <c r="F13" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -1064,7 +1086,7 @@
       <c r="E14" s="10" t="n">
         <v>0.0221</v>
       </c>
-      <c r="F14" s="13" t="inlineStr">
+      <c r="F14" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -1095,7 +1117,7 @@
       <c r="E15" s="10" t="n">
         <v>0.3175</v>
       </c>
-      <c r="F15" s="13" t="inlineStr">
+      <c r="F15" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -1126,7 +1148,7 @@
       <c r="E16" s="10" t="n">
         <v>0.4003</v>
       </c>
-      <c r="F16" s="13" t="inlineStr">
+      <c r="F16" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -1157,7 +1179,7 @@
       <c r="E17" s="10" t="n">
         <v>0.09950000000000001</v>
       </c>
-      <c r="F17" s="13" t="inlineStr">
+      <c r="F17" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -1188,7 +1210,7 @@
       <c r="E18" s="10" t="n">
         <v>0.6272</v>
       </c>
-      <c r="F18" s="13" t="inlineStr">
+      <c r="F18" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -1219,7 +1241,7 @@
       <c r="E19" s="10" t="n">
         <v>0.0965</v>
       </c>
-      <c r="F19" s="13" t="inlineStr">
+      <c r="F19" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -1250,7 +1272,7 @@
       <c r="E20" s="10" t="n">
         <v>0.8168</v>
       </c>
-      <c r="F20" s="13" t="inlineStr">
+      <c r="F20" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -1281,7 +1303,7 @@
       <c r="E21" s="10" t="n">
         <v>0.1557</v>
       </c>
-      <c r="F21" s="13" t="inlineStr">
+      <c r="F21" s="12" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
@@ -1312,7 +1334,7 @@
       <c r="E22" s="10" t="n">
         <v>0.0344</v>
       </c>
-      <c r="F22" s="13" t="inlineStr">
+      <c r="F22" s="12" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
@@ -1343,7 +1365,7 @@
       <c r="E23" s="10" t="n">
         <v>0.2565</v>
       </c>
-      <c r="F23" s="13" t="inlineStr">
+      <c r="F23" s="12" t="inlineStr">
         <is>
           <t>16:30</t>
         </is>
@@ -1374,7 +1396,7 @@
       <c r="E24" s="10" t="n">
         <v>0.0551</v>
       </c>
-      <c r="F24" s="13" t="inlineStr">
+      <c r="F24" s="12" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
@@ -1405,7 +1427,7 @@
       <c r="E25" s="10" t="n">
         <v>0.1411</v>
       </c>
-      <c r="F25" s="13" t="inlineStr">
+      <c r="F25" s="12" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
@@ -1436,7 +1458,7 @@
       <c r="E26" s="10" t="n">
         <v>0.2451</v>
       </c>
-      <c r="F26" s="13" t="inlineStr">
+      <c r="F26" s="12" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
@@ -1467,7 +1489,7 @@
       <c r="E27" s="10" t="n">
         <v>0.0677</v>
       </c>
-      <c r="F27" s="13" t="inlineStr">
+      <c r="F27" s="12" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
@@ -1498,7 +1520,7 @@
       <c r="E28" s="10" t="n">
         <v>0.066</v>
       </c>
-      <c r="F28" s="13" t="inlineStr">
+      <c r="F28" s="12" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
@@ -1529,7 +1551,7 @@
       <c r="E29" s="10" t="n">
         <v>0.7296</v>
       </c>
-      <c r="F29" s="13" t="inlineStr">
+      <c r="F29" s="12" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
@@ -1560,7 +1582,7 @@
       <c r="E30" s="10" t="n">
         <v>0.4168</v>
       </c>
-      <c r="F30" s="13" t="inlineStr">
+      <c r="F30" s="12" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
@@ -1591,7 +1613,7 @@
       <c r="E31" s="10" t="n">
         <v>0.1343</v>
       </c>
-      <c r="F31" s="13" t="inlineStr">
+      <c r="F31" s="12" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>
@@ -1622,7 +1644,7 @@
       <c r="E32" s="10" t="n">
         <v>0.774</v>
       </c>
-      <c r="F32" s="13" t="inlineStr">
+      <c r="F32" s="12" t="inlineStr">
         <is>
           <t>17:45</t>
         </is>
@@ -1653,7 +1675,7 @@
       <c r="E33" s="10" t="n">
         <v>0.5289</v>
       </c>
-      <c r="F33" s="13" t="inlineStr">
+      <c r="F33" s="12" t="inlineStr">
         <is>
           <t>17:50</t>
         </is>
@@ -1684,7 +1706,7 @@
       <c r="E34" s="10" t="n">
         <v>0.5533</v>
       </c>
-      <c r="F34" s="13" t="inlineStr">
+      <c r="F34" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
@@ -1715,7 +1737,7 @@
       <c r="E35" s="10" t="n">
         <v>0.1723</v>
       </c>
-      <c r="F35" s="13" t="inlineStr">
+      <c r="F35" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
@@ -1746,7 +1768,7 @@
       <c r="E36" s="10" t="n">
         <v>0.0186</v>
       </c>
-      <c r="F36" s="13" t="inlineStr">
+      <c r="F36" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
@@ -1777,7 +1799,7 @@
       <c r="E37" s="10" t="n">
         <v>0.1291</v>
       </c>
-      <c r="F37" s="13" t="inlineStr">
+      <c r="F37" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
@@ -1808,7 +1830,7 @@
       <c r="E38" s="10" t="n">
         <v>0.1076</v>
       </c>
-      <c r="F38" s="13" t="inlineStr">
+      <c r="F38" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
@@ -1839,7 +1861,7 @@
       <c r="E39" s="10" t="n">
         <v>0.3078</v>
       </c>
-      <c r="F39" s="13" t="inlineStr">
+      <c r="F39" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
@@ -1870,7 +1892,7 @@
       <c r="E40" s="10" t="n">
         <v>0.2298</v>
       </c>
-      <c r="F40" s="13" t="inlineStr">
+      <c r="F40" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
@@ -1901,7 +1923,7 @@
       <c r="E41" s="10" t="n">
         <v>0.425</v>
       </c>
-      <c r="F41" s="13" t="inlineStr">
+      <c r="F41" s="12" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
@@ -1932,7 +1954,7 @@
       <c r="E42" s="10" t="n">
         <v>0.1304</v>
       </c>
-      <c r="F42" s="13" t="inlineStr">
+      <c r="F42" s="12" t="inlineStr">
         <is>
           <t>18:05</t>
         </is>
@@ -1963,7 +1985,7 @@
       <c r="E43" s="10" t="n">
         <v>0.074</v>
       </c>
-      <c r="F43" s="13" t="inlineStr">
+      <c r="F43" s="12" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
@@ -1994,7 +2016,7 @@
       <c r="E44" s="10" t="n">
         <v>0.07630000000000001</v>
       </c>
-      <c r="F44" s="13" t="inlineStr">
+      <c r="F44" s="12" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
@@ -2025,7 +2047,7 @@
       <c r="E45" s="10" t="n">
         <v>0.218</v>
       </c>
-      <c r="F45" s="13" t="inlineStr">
+      <c r="F45" s="12" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
@@ -2056,7 +2078,7 @@
       <c r="E46" s="10" t="n">
         <v>0.7005</v>
       </c>
-      <c r="F46" s="13" t="inlineStr">
+      <c r="F46" s="12" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>
@@ -2087,7 +2109,7 @@
       <c r="E47" s="10" t="n">
         <v>0.0302</v>
       </c>
-      <c r="F47" s="13" t="inlineStr">
+      <c r="F47" s="12" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
@@ -2118,7 +2140,7 @@
       <c r="E48" s="10" t="n">
         <v>0.5822000000000001</v>
       </c>
-      <c r="F48" s="13" t="inlineStr">
+      <c r="F48" s="12" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
@@ -2149,7 +2171,7 @@
       <c r="E49" s="10" t="n">
         <v>0.2813</v>
       </c>
-      <c r="F49" s="13" t="inlineStr">
+      <c r="F49" s="12" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
@@ -2180,7 +2202,7 @@
       <c r="E50" s="10" t="n">
         <v>0.5381</v>
       </c>
-      <c r="F50" s="13" t="inlineStr">
+      <c r="F50" s="12" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
@@ -2211,7 +2233,7 @@
       <c r="E51" s="10" t="n">
         <v>0.4454</v>
       </c>
-      <c r="F51" s="13" t="inlineStr">
+      <c r="F51" s="12" t="inlineStr">
         <is>
           <t>19:15</t>
         </is>
@@ -2242,7 +2264,7 @@
       <c r="E52" s="10" t="n">
         <v>0.1125</v>
       </c>
-      <c r="F52" s="13" t="inlineStr">
+      <c r="F52" s="12" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
@@ -2273,7 +2295,7 @@
       <c r="E53" s="10" t="n">
         <v>0.7144</v>
       </c>
-      <c r="F53" s="13" t="inlineStr">
+      <c r="F53" s="12" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
@@ -2304,7 +2326,7 @@
       <c r="E54" s="10" t="n">
         <v>0.2218</v>
       </c>
-      <c r="F54" s="13" t="inlineStr">
+      <c r="F54" s="12" t="inlineStr">
         <is>
           <t>19:45</t>
         </is>
@@ -2335,7 +2357,7 @@
       <c r="E55" s="10" t="n">
         <v>0.0022</v>
       </c>
-      <c r="F55" s="13" t="inlineStr">
+      <c r="F55" s="12" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
@@ -2366,7 +2388,7 @@
       <c r="E56" s="10" t="n">
         <v>0.2103</v>
       </c>
-      <c r="F56" s="13" t="inlineStr">
+      <c r="F56" s="12" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
@@ -2397,7 +2419,7 @@
       <c r="E57" s="10" t="n">
         <v>0.3479</v>
       </c>
-      <c r="F57" s="13" t="inlineStr">
+      <c r="F57" s="12" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
@@ -2428,7 +2450,7 @@
       <c r="E58" s="10" t="n">
         <v>0.3809</v>
       </c>
-      <c r="F58" s="13" t="inlineStr">
+      <c r="F58" s="12" t="inlineStr">
         <is>
           <t>20:15</t>
         </is>
@@ -2459,7 +2481,7 @@
       <c r="E59" s="10" t="n">
         <v>0.6585</v>
       </c>
-      <c r="F59" s="13" t="inlineStr">
+      <c r="F59" s="12" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
@@ -2490,7 +2512,7 @@
       <c r="E60" s="10" t="n">
         <v>0.0231</v>
       </c>
-      <c r="F60" s="13" t="inlineStr">
+      <c r="F60" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -2521,7 +2543,7 @@
       <c r="E61" s="10" t="n">
         <v>0.318</v>
       </c>
-      <c r="F61" s="13" t="inlineStr">
+      <c r="F61" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -2552,7 +2574,7 @@
       <c r="E62" s="10" t="n">
         <v>0.5122</v>
       </c>
-      <c r="F62" s="13" t="inlineStr">
+      <c r="F62" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -2583,7 +2605,7 @@
       <c r="E63" s="10" t="n">
         <v>0.274</v>
       </c>
-      <c r="F63" s="13" t="inlineStr">
+      <c r="F63" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -2614,7 +2636,7 @@
       <c r="E64" s="10" t="n">
         <v>0.4535</v>
       </c>
-      <c r="F64" s="13" t="inlineStr">
+      <c r="F64" s="12" t="inlineStr">
         <is>
           <t>21:45</t>
         </is>
@@ -2645,7 +2667,7 @@
       <c r="E65" s="10" t="n">
         <v>0.4357</v>
       </c>
-      <c r="F65" s="13" t="inlineStr">
+      <c r="F65" s="12" t="inlineStr">
         <is>
           <t>21:45</t>
         </is>
@@ -2676,7 +2698,7 @@
       <c r="E66" s="10" t="n">
         <v>0.0631</v>
       </c>
-      <c r="F66" s="13" t="inlineStr">
+      <c r="F66" s="12" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
@@ -2707,7 +2729,7 @@
       <c r="E67" s="10" t="n">
         <v>0.0315</v>
       </c>
-      <c r="F67" s="13" t="inlineStr">
+      <c r="F67" s="12" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
@@ -2738,7 +2760,7 @@
       <c r="E68" s="10" t="n">
         <v>0.1751</v>
       </c>
-      <c r="F68" s="13" t="inlineStr">
+      <c r="F68" s="12" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
@@ -2769,7 +2791,7 @@
       <c r="E69" s="10" t="n">
         <v>0.3306</v>
       </c>
-      <c r="F69" s="13" t="inlineStr">
+      <c r="F69" s="12" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
@@ -2800,7 +2822,7 @@
       <c r="E70" s="10" t="n">
         <v>0.1014</v>
       </c>
-      <c r="F70" s="13" t="inlineStr">
+      <c r="F70" s="12" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2831,7 +2853,7 @@
       <c r="E71" s="10" t="n">
         <v>0.2014</v>
       </c>
-      <c r="F71" s="13" t="inlineStr">
+      <c r="F71" s="12" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2862,7 +2884,7 @@
       <c r="E72" s="10" t="n">
         <v>0.4971</v>
       </c>
-      <c r="F72" s="13" t="inlineStr">
+      <c r="F72" s="12" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2893,7 +2915,7 @@
       <c r="E73" s="10" t="n">
         <v>0.4449</v>
       </c>
-      <c r="F73" s="13" t="inlineStr">
+      <c r="F73" s="12" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2924,7 +2946,7 @@
       <c r="E74" s="10" t="n">
         <v>0.2173</v>
       </c>
-      <c r="F74" s="13" t="inlineStr">
+      <c r="F74" s="12" t="inlineStr">
         <is>
           <t>23:00</t>
         </is>
@@ -2955,7 +2977,7 @@
       <c r="E75" s="10" t="n">
         <v>0.2366</v>
       </c>
-      <c r="F75" s="13" t="inlineStr">
+      <c r="F75" s="12" t="inlineStr">
         <is>
           <t>23:30</t>
         </is>
@@ -3015,7 +3037,7 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3029,285 +3051,285 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>homeWin</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>draw</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>awayWin</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>Atlético de San Luis</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>Puebla</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="14" t="n">
         <v>0.3379</v>
       </c>
-      <c r="D2" s="15" t="n">
+      <c r="D2" s="14" t="n">
         <v>0.3612</v>
       </c>
-      <c r="E2" s="15" t="n">
+      <c r="E2" s="14" t="n">
         <v>0.3297</v>
       </c>
-      <c r="F2" s="16" t="inlineStr">
+      <c r="F2" s="15" t="inlineStr">
         <is>
           <t>01:00</t>
         </is>
       </c>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="inlineStr">
+      <c r="A3" s="13" t="inlineStr">
         <is>
           <t>New York Red Bulls</t>
         </is>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>Minnesota United FC</t>
         </is>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="14" t="n">
         <v>0.4646</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="14" t="n">
         <v>0.2583</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="E3" s="14" t="n">
         <v>0.2755</v>
       </c>
-      <c r="F3" s="16" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>01:00</t>
         </is>
       </c>
-      <c r="G3" s="14" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
+      <c r="A4" s="13" t="inlineStr">
         <is>
           <t>Botafogo SP</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
         <is>
           <t>Grêmio Novorizontino</t>
         </is>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="14" t="n">
         <v>0.5027</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="14" t="n">
         <v>0.362</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="14" t="n">
         <v>0.1829</v>
       </c>
-      <c r="F4" s="16" t="inlineStr">
+      <c r="F4" s="15" t="inlineStr">
         <is>
           <t>01:30</t>
         </is>
       </c>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="inlineStr">
+      <c r="A5" s="13" t="inlineStr">
         <is>
           <t>Ituano</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>Red Bull Bragantino</t>
         </is>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="14" t="n">
         <v>0.38</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="14" t="n">
         <v>0.241</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="14" t="n">
         <v>0.3717</v>
       </c>
-      <c r="F5" s="16" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>01:30</t>
         </is>
       </c>
-      <c r="G5" s="14" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="inlineStr">
+      <c r="A6" s="13" t="inlineStr">
         <is>
           <t>Audax Italiano</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="13" t="inlineStr">
         <is>
           <t>Palestino</t>
         </is>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="14" t="n">
         <v>0.4032</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D6" s="14" t="n">
         <v>0.3473</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="14" t="n">
         <v>0.2354</v>
       </c>
-      <c r="F6" s="16" t="inlineStr">
+      <c r="F6" s="15" t="inlineStr">
         <is>
           <t>01:30</t>
         </is>
       </c>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="inlineStr">
+      <c r="A7" s="13" t="inlineStr">
         <is>
           <t>Estudiantes de La Plata</t>
         </is>
       </c>
-      <c r="B7" s="14" t="inlineStr">
+      <c r="B7" s="13" t="inlineStr">
         <is>
           <t>Boca Juniors</t>
         </is>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="14" t="n">
         <v>0.4701</v>
       </c>
-      <c r="D7" s="15" t="n">
+      <c r="D7" s="14" t="n">
         <v>0.2859</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="14" t="n">
         <v>0.2389</v>
       </c>
-      <c r="F7" s="16" t="inlineStr">
+      <c r="F7" s="15" t="inlineStr">
         <is>
           <t>02:30</t>
         </is>
       </c>
-      <c r="G7" s="14" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="inlineStr">
+      <c r="A8" s="13" t="inlineStr">
         <is>
           <t>Santos Laguna</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>Club Tijuana</t>
         </is>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="14" t="n">
         <v>0.4699</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D8" s="14" t="n">
         <v>0.2864</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="14" t="n">
         <v>0.2826</v>
       </c>
-      <c r="F8" s="16" t="inlineStr">
+      <c r="F8" s="15" t="inlineStr">
         <is>
           <t>03:00</t>
         </is>
       </c>
-      <c r="G8" s="14" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="inlineStr">
+      <c r="A9" s="16" t="inlineStr">
         <is>
           <t>Başakşehir FK</t>
         </is>
       </c>
-      <c r="B9" s="17" t="inlineStr">
+      <c r="B9" s="16" t="inlineStr">
         <is>
           <t>Antalyaspor</t>
         </is>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="17" t="n">
         <v>0.7054</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="17" t="n">
         <v>0.2017</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="17" t="n">
         <v>0.1049</v>
       </c>
-      <c r="F9" s="19" t="inlineStr">
+      <c r="F9" s="18" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="G9" s="17" t="inlineStr">
+      <c r="G9" s="16" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
@@ -3333,7 +3355,7 @@
       <c r="E10" s="10" t="n">
         <v>0.3083</v>
       </c>
-      <c r="F10" s="13" t="inlineStr">
+      <c r="F10" s="12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
@@ -3364,7 +3386,7 @@
       <c r="E11" s="10" t="n">
         <v>0.3262</v>
       </c>
-      <c r="F11" s="13" t="inlineStr">
+      <c r="F11" s="12" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
@@ -3395,7 +3417,7 @@
       <c r="E12" s="10" t="n">
         <v>0.3028</v>
       </c>
-      <c r="F12" s="13" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
@@ -3426,7 +3448,7 @@
       <c r="E13" s="10" t="n">
         <v>0.08450000000000001</v>
       </c>
-      <c r="F13" s="13" t="inlineStr">
+      <c r="F13" s="12" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
@@ -3457,7 +3479,7 @@
       <c r="E14" s="10" t="n">
         <v>0.3887</v>
       </c>
-      <c r="F14" s="13" t="inlineStr">
+      <c r="F14" s="12" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
@@ -3488,7 +3510,7 @@
       <c r="E15" s="10" t="n">
         <v>0.3195</v>
       </c>
-      <c r="F15" s="13" t="inlineStr">
+      <c r="F15" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -3519,7 +3541,7 @@
       <c r="E16" s="10" t="n">
         <v>0.3634</v>
       </c>
-      <c r="F16" s="13" t="inlineStr">
+      <c r="F16" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -3550,7 +3572,7 @@
       <c r="E17" s="10" t="n">
         <v>0.3891</v>
       </c>
-      <c r="F17" s="13" t="inlineStr">
+      <c r="F17" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -3562,31 +3584,31 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="inlineStr">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>FC Emmen</t>
         </is>
       </c>
-      <c r="B18" s="17" t="inlineStr">
+      <c r="B18" s="16" t="inlineStr">
         <is>
           <t>FC Volendam</t>
         </is>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="17" t="n">
         <v>0.6094000000000001</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="17" t="n">
         <v>0.3055</v>
       </c>
-      <c r="E18" s="18" t="n">
+      <c r="E18" s="17" t="n">
         <v>0.1176</v>
       </c>
-      <c r="F18" s="19" t="inlineStr">
+      <c r="F18" s="18" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="G18" s="17" t="inlineStr">
+      <c r="G18" s="16" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
@@ -3612,7 +3634,7 @@
       <c r="E19" s="10" t="n">
         <v>0.2443</v>
       </c>
-      <c r="F19" s="13" t="inlineStr">
+      <c r="F19" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -3624,62 +3646,62 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="inlineStr">
+      <c r="A20" s="16" t="inlineStr">
         <is>
           <t>MVV Maastricht</t>
         </is>
       </c>
-      <c r="B20" s="17" t="inlineStr">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>Jong AZ Alkmaar</t>
         </is>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C20" s="17" t="n">
         <v>0.07439999999999999</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D20" s="17" t="n">
         <v>0.6462</v>
       </c>
-      <c r="E20" s="18" t="n">
+      <c r="E20" s="17" t="n">
         <v>0.2863</v>
       </c>
-      <c r="F20" s="19" t="inlineStr">
+      <c r="F20" s="18" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="G20" s="17" t="inlineStr">
+      <c r="G20" s="16" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="inlineStr">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>Roda JC Kerkrade</t>
         </is>
       </c>
-      <c r="B21" s="17" t="inlineStr">
+      <c r="B21" s="16" t="inlineStr">
         <is>
           <t>De Graafschap</t>
         </is>
       </c>
-      <c r="C21" s="18" t="n">
+      <c r="C21" s="17" t="n">
         <v>0.523</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D21" s="17" t="n">
         <v>0.2438</v>
       </c>
-      <c r="E21" s="18" t="n">
+      <c r="E21" s="17" t="n">
         <v>0.2376</v>
       </c>
-      <c r="F21" s="19" t="inlineStr">
+      <c r="F21" s="18" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="G21" s="17" t="inlineStr">
+      <c r="G21" s="16" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
@@ -3705,7 +3727,7 @@
       <c r="E22" s="10" t="n">
         <v>0.4296</v>
       </c>
-      <c r="F22" s="13" t="inlineStr">
+      <c r="F22" s="12" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -3716,32 +3738,32 @@
         </is>
       </c>
     </row>
-    <row r="23" customFormat="1" s="17">
-      <c r="A23" s="17" t="inlineStr">
+    <row r="23" customFormat="1" s="16">
+      <c r="A23" s="16" t="inlineStr">
         <is>
           <t>Lazio</t>
         </is>
       </c>
-      <c r="B23" s="17" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>Venezia</t>
         </is>
       </c>
-      <c r="C23" s="18" t="n">
+      <c r="C23" s="17" t="n">
         <v>0.8542999999999999</v>
       </c>
-      <c r="D23" s="18" t="n">
+      <c r="D23" s="17" t="n">
         <v>0.1221</v>
       </c>
-      <c r="E23" s="18" t="n">
+      <c r="E23" s="17" t="n">
         <v>0.0761</v>
       </c>
-      <c r="F23" s="19" t="inlineStr">
+      <c r="F23" s="18" t="inlineStr">
         <is>
           <t>21:45</t>
         </is>
       </c>
-      <c r="G23" s="17" t="inlineStr">
+      <c r="G23" s="16" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
@@ -3767,7 +3789,7 @@
       <c r="E24" s="10" t="n">
         <v>0.7591</v>
       </c>
-      <c r="F24" s="13" t="inlineStr">
+      <c r="F24" s="12" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
@@ -3779,31 +3801,31 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="17" t="inlineStr">
+      <c r="A25" s="16" t="inlineStr">
         <is>
           <t>RCD Mallorca</t>
         </is>
       </c>
-      <c r="B25" s="17" t="inlineStr">
+      <c r="B25" s="16" t="inlineStr">
         <is>
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="C25" s="18" t="n">
+      <c r="C25" s="17" t="n">
         <v>0.0953</v>
       </c>
-      <c r="D25" s="18" t="n">
+      <c r="D25" s="17" t="n">
         <v>0.2288</v>
       </c>
-      <c r="E25" s="18" t="n">
+      <c r="E25" s="17" t="n">
         <v>0.6457000000000001</v>
       </c>
-      <c r="F25" s="19" t="inlineStr">
+      <c r="F25" s="18" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
       </c>
-      <c r="G25" s="17" t="inlineStr">
+      <c r="G25" s="16" t="inlineStr">
         <is>
           <t>14/03/2022</t>
         </is>
@@ -3829,7 +3851,7 @@
       <c r="E26" s="10" t="n">
         <v>0.5094</v>
       </c>
-      <c r="F26" s="13" t="inlineStr">
+      <c r="F26" s="12" t="inlineStr">
         <is>
           <t>22:15</t>
         </is>
@@ -3860,7 +3882,7 @@
       <c r="E27" s="10" t="n">
         <v>0.3162</v>
       </c>
-      <c r="F27" s="13" t="inlineStr">
+      <c r="F27" s="12" t="inlineStr">
         <is>
           <t>23:00</t>
         </is>
@@ -3883,7 +3905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3941,17 +3963,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>78.58%</t>
+          <t>66.33%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.25%</t>
+          <t>18.52%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.83%</t>
+          <t>14.68%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3978,17 +4000,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>40.49%</t>
+          <t>40.34%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.75%</t>
+          <t>29.32%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.93%</t>
+          <t>31.17%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4015,17 +4037,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21.66%</t>
+          <t>34.10%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.04%</t>
+          <t>21.71%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.50%</t>
+          <t>38.45%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4052,17 +4074,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.76%</t>
+          <t>23.34%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>40.83%</t>
+          <t>41.16%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.83%</t>
+          <t>24.03%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4089,17 +4111,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>58.09%</t>
+          <t>55.53%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.18%</t>
+          <t>15.62%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>25.84%</t>
+          <t>31.77%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4126,17 +4148,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>92.83%</t>
+          <t>89.32%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14.54%</t>
+          <t>8.35%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.17%</t>
+          <t>7.16%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4163,17 +4185,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6.89%</t>
+          <t>19.03%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>41.43%</t>
+          <t>39.18%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36.44%</t>
+          <t>39.98%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4200,17 +4222,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>48.11%</t>
+          <t>41.19%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>26.92%</t>
+          <t>22.76%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14.33%</t>
+          <t>28.26%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4237,17 +4259,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17.95%</t>
+          <t>45.40%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34.31%</t>
+          <t>24.87%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>37.52%</t>
+          <t>21.51%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4274,17 +4296,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>34.65%</t>
+          <t>33.77%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>12.70%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>42.18%</t>
+          <t>54.83%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4311,17 +4333,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.90%</t>
+          <t>5.49%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27.76%</t>
+          <t>31.59%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>36.86%</t>
+          <t>66.71%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4348,17 +4370,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>29.13%</t>
+          <t>28.34%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15.59%</t>
+          <t>25.72%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50.05%</t>
+          <t>48.71%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4385,17 +4407,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>37.03%</t>
+          <t>36.80%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15.98%</t>
+          <t>21.34%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>35.25%</t>
+          <t>32.04%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4422,17 +4444,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16.93%</t>
+          <t>17.14%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.12%</t>
+          <t>15.97%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>73.09%</t>
+          <t>66.51%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4459,17 +4481,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>62.48%</t>
+          <t>48.69%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>42.22%</t>
+          <t>39.42%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10.47%</t>
+          <t>12.94%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4496,17 +4518,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8.46%</t>
+          <t>4.72%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>39.16%</t>
+          <t>49.48%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>43.39%</t>
+          <t>43.66%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4533,17 +4555,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>74.60%</t>
+          <t>55.16%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.29%</t>
+          <t>15.40%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15.70%</t>
+          <t>24.24%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4570,17 +4592,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8.90%</t>
+          <t>19.12%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13.34%</t>
+          <t>24.02%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>52.96%</t>
+          <t>51.28%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4607,17 +4629,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15.50%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>47.33%</t>
+          <t>33.86%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>35.32%</t>
+          <t>54.15%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4644,17 +4666,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>65.05%</t>
+          <t>50.11%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22.92%</t>
+          <t>22.18%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11.55%</t>
+          <t>26.82%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4681,17 +4703,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17.12%</t>
+          <t>17.08%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24.11%</t>
+          <t>26.86%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>48.42%</t>
+          <t>54.31%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4718,17 +4740,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>62.84%</t>
+          <t>63.87%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13.33%</t>
+          <t>18.90%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>31.11%</t>
+          <t>26.06%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4755,17 +4777,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>65.83%</t>
+          <t>60.59%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19.07%</t>
+          <t>12.64%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10.80%</t>
+          <t>20.84%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4792,17 +4814,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11.84%</t>
+          <t>16.93%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>62.81%</t>
+          <t>57.57%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>21.23%</t>
+          <t>22.96%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4829,17 +4851,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>39.93%</t>
+          <t>47.40%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13.47%</t>
+          <t>18.83%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>43.72%</t>
+          <t>36.14%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4866,17 +4888,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>48.64%</t>
+          <t>37.39%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12.45%</t>
+          <t>16.54%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28.53%</t>
+          <t>43.71%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4903,17 +4925,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>57.12%</t>
+          <t>44.75%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15.22%</t>
+          <t>14.34%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8.77%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -4940,17 +4962,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2.34%</t>
+          <t>5.05%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23.43%</t>
+          <t>36.17%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>68.26%</t>
+          <t>71.83%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4977,17 +4999,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>93.97%</t>
+          <t>68.17%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8.30%</t>
+          <t>9.04%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5.84%</t>
+          <t>27.47%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5014,17 +5036,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>90.05%</t>
+          <t>54.71%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>44.88%</t>
+          <t>55.94%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>1.45%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5051,17 +5073,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>42.79%</t>
+          <t>41.11%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>43.75%</t>
+          <t>31.58%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13.16%</t>
+          <t>19.94%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5088,17 +5110,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>97.32%</t>
+          <t>67.50%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.75%</t>
+          <t>25.59%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>11.50%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5125,17 +5147,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>75.32%</t>
+          <t>47.39%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.96%</t>
+          <t>16.04%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14.65%</t>
+          <t>32.35%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5162,17 +5184,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>19.80%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>29.78%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>63.57%</t>
+          <t>53.52%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5199,17 +5221,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>36.63%</t>
+          <t>37.73%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>71.72%</t>
+          <t>30.09%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.92%</t>
+          <t>23.04%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -5236,17 +5258,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>51.26%</t>
+          <t>55.11%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8.95%</t>
+          <t>9.06%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>38.82%</t>
+          <t>33.20%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -5273,17 +5295,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18.93%</t>
+          <t>13.91%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>54.01%</t>
+          <t>39.47%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>24.79%</t>
+          <t>45.77%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -5310,17 +5332,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>28.29%</t>
+          <t>54.00%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>79.33%</t>
+          <t>33.73%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>19.39%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -5347,17 +5369,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>53.98%</t>
+          <t>51.31%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>18.36%</t>
+          <t>19.86%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>33.21%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -5384,17 +5406,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8.57%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>24.13%</t>
+          <t>52.91%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>70.06%</t>
+          <t>53.55%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5421,17 +5443,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15.26%</t>
+          <t>10.17%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>48.79%</t>
+          <t>35.72%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>24.44%</t>
+          <t>50.90%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5458,17 +5480,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>92.17%</t>
+          <t>55.69%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.47%</t>
+          <t>18.50%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.08%</t>
+          <t>22.24%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5495,17 +5517,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>62.76%</t>
+          <t>62.02%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>24.17%</t>
+          <t>14.27%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>9.43%</t>
+          <t>22.45%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5532,17 +5554,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16.87%</t>
+          <t>38.26%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>18.37%</t>
+          <t>15.39%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>66.43%</t>
+          <t>45.84%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5569,17 +5591,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>47.62%</t>
+          <t>38.73%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20.32%</t>
+          <t>24.97%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>24.60%</t>
+          <t>33.07%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5606,17 +5628,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>53.82%</t>
+          <t>52.92%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>22.65%</t>
+          <t>21.02%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>24.21%</t>
+          <t>28.23%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5643,17 +5665,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>39.75%</t>
+          <t>36.40%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13.23%</t>
+          <t>16.32%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>43.13%</t>
+          <t>47.86%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5662,117 +5684,6 @@
         </is>
       </c>
       <c r="G48" t="inlineStr">
-        <is>
-          <t>15/03/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Atlético Tucumán</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>38.71%</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>20.91%</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>43.42%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>00:15</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>15/03/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Argentinos Juniors</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Defensa y Justicia</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>62.09%</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>18.02%</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>21.09%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>02:30</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>15/03/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Independiente</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Central Córdoba</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>62.02%</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>11.64%</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>27.61%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>02:30</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
         <is>
           <t>15/03/2022</t>
         </is>

--- a/predicoes.xlsx
+++ b/predicoes.xlsx
@@ -4025,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/predicoes.xlsx
+++ b/predicoes.xlsx
@@ -16,13 +16,14 @@
     <sheet name="13-03-2022" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="14-03-2022" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="15-03-2022" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="16-03-2022" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="382">
   <si>
     <t>Saldo</t>
   </si>
@@ -756,301 +757,418 @@
     <t>Colo Colo</t>
   </si>
   <si>
+    <t>Daejeon Hana Citizen</t>
+  </si>
+  <si>
+    <t>Ansan Greeners FC</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>15/03/2022</t>
+  </si>
+  <si>
+    <t>Gimpo Citizen</t>
+  </si>
+  <si>
+    <t>Chungnam Asan FC</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>Perth Glory</t>
+  </si>
+  <si>
+    <t>Central Coast Mariners</t>
+  </si>
+  <si>
+    <t>13:05</t>
+  </si>
+  <si>
+    <t>Kerala Blasters</t>
+  </si>
+  <si>
+    <t>Jamshedpur FC</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>L.R. Vicenza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Legia Warszawa</t>
+  </si>
+  <si>
+    <t>Bruk-Bet Termalica Nieciecza</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Chamois Niortais</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Nîmes Olympique</t>
+  </si>
+  <si>
+    <t>AJ Auxerre</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Quevilly-Rouen Métropole</t>
+  </si>
+  <si>
+    <t>AC Ajaccio</t>
+  </si>
+  <si>
+    <t>Rodez AF</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Birmingham City</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Blackburn Rovers</t>
+  </si>
+  <si>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>Plymouth Argyle</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Rotherham United</t>
+  </si>
+  <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Sheffield Wednesday</t>
+  </si>
+  <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
+    <t>Shrewsbury Town</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Carlisle United</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Exeter City</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green Rovers</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Hartlepool United</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford City</t>
+  </si>
+  <si>
+    <t>Scunthorpe United</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
+    <t>Sutton United</t>
+  </si>
+  <si>
+    <t>Tranmere Rovers</t>
+  </si>
+  <si>
+    <t>Harrogate Town</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Oldham Athletic</t>
+  </si>
+  <si>
     <t>Ajax</t>
   </si>
   <si>
     <t>SL Benfica</t>
   </si>
   <si>
-    <t>15/03/2022</t>
-  </si>
-  <si>
     <t>Manchester United</t>
   </si>
   <si>
     <t>Atlético Madrid</t>
   </si>
   <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Birmingham City</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Blackburn Rovers</t>
-  </si>
-  <si>
-    <t>Derby County</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
     <t>West Bromwich Albion</t>
   </si>
   <si>
     <t>Fulham</t>
   </si>
   <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>L.R. Vicenza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Chamois Niortais</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Nîmes Olympique</t>
-  </si>
-  <si>
-    <t>AJ Auxerre</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Quevilly-Rouen Métropole</t>
-  </si>
-  <si>
-    <t>AC Ajaccio</t>
-  </si>
-  <si>
-    <t>Rodez AF</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Perth Glory</t>
-  </si>
-  <si>
-    <t>Central Coast Mariners</t>
-  </si>
-  <si>
-    <t>13:05</t>
-  </si>
-  <si>
-    <t>Legia Warszawa</t>
-  </si>
-  <si>
-    <t>Bruk-Bet Termalica Nieciecza</t>
-  </si>
-  <si>
-    <t>Charlton Athletic</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Crewe Alexandra</t>
-  </si>
-  <si>
-    <t>Wigan Athletic</t>
-  </si>
-  <si>
-    <t>Plymouth Argyle</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Rotherham United</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
-    <t>Sheffield Wednesday</t>
-  </si>
-  <si>
-    <t>Accrington Stanley</t>
-  </si>
-  <si>
-    <t>Shrewsbury Town</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
-    <t>Colchester United</t>
-  </si>
-  <si>
-    <t>Carlisle United</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Exeter City</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green Rovers</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Hartlepool United</t>
-  </si>
-  <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford City</t>
-  </si>
-  <si>
-    <t>Scunthorpe United</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Swindon Town</t>
-  </si>
-  <si>
-    <t>Sutton United</t>
-  </si>
-  <si>
-    <t>Tranmere Rovers</t>
-  </si>
-  <si>
-    <t>Harrogate Town</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Oldham Athletic</t>
-  </si>
-  <si>
-    <t>Kerala Blasters</t>
-  </si>
-  <si>
-    <t>Jamshedpur FC</t>
-  </si>
-  <si>
-    <t>Daejeon Hana Citizen</t>
-  </si>
-  <si>
-    <t>Ansan Greeners FC</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>Gimpo Citizen</t>
-  </si>
-  <si>
-    <t>Chungnam Asan FC</t>
-  </si>
-  <si>
-    <t>12:30</t>
+    <t>Adelaide United</t>
+  </si>
+  <si>
+    <t>Western Sydney Wanderers</t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>16/03/2022</t>
+  </si>
+  <si>
+    <t>Gwangju FC</t>
+  </si>
+  <si>
+    <t>Seoul E-Land FC</t>
+  </si>
+  <si>
+    <t>Jeonnam Dragons</t>
+  </si>
+  <si>
+    <t>Bucheon FC 1995</t>
+  </si>
+  <si>
+    <t>FC Anyang</t>
+  </si>
+  <si>
+    <t>Busan I Park</t>
+  </si>
+  <si>
+    <t>ATK Mohun Bagan FC</t>
+  </si>
+  <si>
+    <t>Hyderabad FC</t>
+  </si>
+  <si>
+    <t>1. FSV Mainz 05</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>SPAL</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Cardiff City</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
+    <t>Coventry City</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
+    <t>Luton Town</t>
+  </si>
+  <si>
+    <t>Preston North End</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Queens Park Rangers</t>
+  </si>
+  <si>
+    <t>Peterborough United</t>
+  </si>
+  <si>
+    <t>Swansea City</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Lille OSC</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Deportes Tolima</t>
+  </si>
+  <si>
+    <t>Patriotas Boyacá</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,6 +1202,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1123,7 +1246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1204,11 +1327,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1233,6 +1371,9 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1545,7 +1686,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>284.17</v>
+        <v>325.72000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1708,7 @@
       </c>
       <c r="B2" s="8">
         <f>B1*0.1</f>
-        <v>28.417000000000002</v>
+        <v>32.572000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1717,7 @@
       </c>
       <c r="B3" s="7">
         <f>B2*0.75</f>
-        <v>21.312750000000001</v>
+        <v>24.429000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,7 +1726,7 @@
       </c>
       <c r="B4" s="6">
         <f>B3*0.75</f>
-        <v>15.984562500000001</v>
+        <v>18.321750000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4025,8 +4166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,10 +4204,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="C2" s="10">
         <v>0.5292</v>
@@ -4078,18 +4219,18 @@
         <v>0.2823</v>
       </c>
       <c r="F2" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>249</v>
       </c>
       <c r="C3" s="10">
         <v>0.36399999999999999</v>
@@ -4101,18 +4242,18 @@
         <v>0.47860000000000003</v>
       </c>
       <c r="F3" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="C4" s="10">
         <v>0.47399999999999998</v>
@@ -4124,18 +4265,18 @@
         <v>0.3614</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="C5" s="10">
         <v>0.38729999999999998</v>
@@ -4150,15 +4291,15 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C6" s="10">
         <v>0.41189999999999999</v>
@@ -4173,15 +4314,15 @@
         <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" s="10">
         <v>0.45400000000000001</v>
@@ -4196,15 +4337,15 @@
         <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C8" s="10">
         <v>0.3377</v>
@@ -4219,15 +4360,15 @@
         <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C9" s="10">
         <v>5.4899999999999997E-2</v>
@@ -4242,15 +4383,15 @@
         <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C10" s="10">
         <v>0.28339999999999999</v>
@@ -4265,15 +4406,15 @@
         <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C11" s="10">
         <v>0.36799999999999999</v>
@@ -4288,15 +4429,15 @@
         <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C12" s="10">
         <v>0.37390000000000001</v>
@@ -4311,15 +4452,15 @@
         <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C13" s="10">
         <v>0.4869</v>
@@ -4334,15 +4475,15 @@
         <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C14" s="10">
         <v>4.7199999999999999E-2</v>
@@ -4357,15 +4498,15 @@
         <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C15" s="10">
         <v>0.55159999999999998</v>
@@ -4380,15 +4521,15 @@
         <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C16" s="10">
         <v>0.19120000000000001</v>
@@ -4403,15 +4544,15 @@
         <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C17" s="10">
         <v>0.1176</v>
@@ -4426,15 +4567,15 @@
         <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C18" s="10">
         <v>0.50109999999999999</v>
@@ -4449,15 +4590,15 @@
         <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C19" s="10">
         <v>0.17080000000000001</v>
@@ -4472,15 +4613,15 @@
         <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C20" s="10">
         <v>0.63870000000000005</v>
@@ -4495,15 +4636,15 @@
         <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C21" s="10">
         <v>0.60589999999999999</v>
@@ -4518,15 +4659,15 @@
         <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C22" s="10">
         <v>0.16930000000000001</v>
@@ -4541,15 +4682,15 @@
         <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="C23" s="10">
         <v>0.1714</v>
@@ -4561,18 +4702,18 @@
         <v>0.66510000000000002</v>
       </c>
       <c r="F23" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="C24" s="10">
         <v>0.34100000000000003</v>
@@ -4587,15 +4728,15 @@
         <v>159</v>
       </c>
       <c r="G24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="C25" s="10">
         <v>0.2334</v>
@@ -4610,15 +4751,15 @@
         <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="C26" s="10">
         <v>0.55530000000000002</v>
@@ -4633,15 +4774,15 @@
         <v>159</v>
       </c>
       <c r="G26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="C27" s="10">
         <v>0.89319999999999999</v>
@@ -4656,15 +4797,15 @@
         <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C28" s="10">
         <v>0.44750000000000001</v>
@@ -4679,15 +4820,15 @@
         <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C29" s="10">
         <v>5.0500000000000003E-2</v>
@@ -4702,15 +4843,15 @@
         <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C30" s="10">
         <v>0.68169999999999997</v>
@@ -4725,15 +4866,15 @@
         <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C31" s="10">
         <v>0.54710000000000003</v>
@@ -4748,15 +4889,15 @@
         <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C32" s="10">
         <v>0.41110000000000002</v>
@@ -4771,15 +4912,15 @@
         <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C33" s="10">
         <v>0.67500000000000004</v>
@@ -4794,15 +4935,15 @@
         <v>159</v>
       </c>
       <c r="G33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C34" s="10">
         <v>0.47389999999999999</v>
@@ -4817,15 +4958,15 @@
         <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C35" s="10">
         <v>0.19800000000000001</v>
@@ -4840,15 +4981,15 @@
         <v>159</v>
       </c>
       <c r="G35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C36" s="10">
         <v>0.37730000000000002</v>
@@ -4863,15 +5004,15 @@
         <v>159</v>
       </c>
       <c r="G36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C37" s="10">
         <v>0.55110000000000003</v>
@@ -4886,15 +5027,15 @@
         <v>159</v>
       </c>
       <c r="G37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C38" s="10">
         <v>0.1391</v>
@@ -4909,15 +5050,15 @@
         <v>159</v>
       </c>
       <c r="G38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C39" s="10">
         <v>0.54</v>
@@ -4932,15 +5073,15 @@
         <v>159</v>
       </c>
       <c r="G39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C40" s="10">
         <v>0.5131</v>
@@ -4955,15 +5096,15 @@
         <v>159</v>
       </c>
       <c r="G40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C41" s="10">
         <v>3.6200000000000003E-2</v>
@@ -4978,15 +5119,15 @@
         <v>159</v>
       </c>
       <c r="G41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C42" s="10">
         <v>0.1017</v>
@@ -5001,15 +5142,15 @@
         <v>159</v>
       </c>
       <c r="G42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C43" s="10">
         <v>0.55689999999999995</v>
@@ -5024,15 +5165,15 @@
         <v>159</v>
       </c>
       <c r="G43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C44" s="10">
         <v>0.62019999999999997</v>
@@ -5047,15 +5188,15 @@
         <v>159</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C45" s="10">
         <v>0.3826</v>
@@ -5070,15 +5211,15 @@
         <v>159</v>
       </c>
       <c r="G45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>338</v>
       </c>
       <c r="C46" s="10">
         <v>0.6633</v>
@@ -5093,15 +5234,15 @@
         <v>164</v>
       </c>
       <c r="G46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>340</v>
       </c>
       <c r="C47" s="10">
         <v>0.40339999999999998</v>
@@ -5116,15 +5257,15 @@
         <v>164</v>
       </c>
       <c r="G47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="C48" s="10">
         <v>0.1903</v>
@@ -5139,13 +5280,535 @@
         <v>164</v>
       </c>
       <c r="G48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.7571</v>
+      </c>
+      <c r="D2" s="10">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.21179999999999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.2954</v>
+      </c>
+      <c r="F3" t="s">
         <v>246</v>
       </c>
+      <c r="G3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.1792</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.19220000000000001</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.2208</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="D11" s="10">
+        <v>7.17E-2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.2165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.42070000000000002</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.5847</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.26E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.1744</v>
+      </c>
+      <c r="E14" s="10">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.1789</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.51759999999999995</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2.06E-2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.1182</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.217</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.37730000000000002</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="D19" s="10">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.22470000000000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" s="10">
+        <v>8.6E-3</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.66479999999999995</v>
+      </c>
+      <c r="F21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G48">
-    <sortCondition ref="F48"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/predicoes.xlsx
+++ b/predicoes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,6 +47,11 @@
       <color theme="1" tint="0.499984740745262"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -94,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,6 +196,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -200,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -231,6 +251,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -603,7 +626,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6170,42 +6193,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="B1" s="21" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="C1" s="21" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>homeWin</t>
         </is>
       </c>
-      <c r="D1" s="21" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>draw</t>
         </is>
       </c>
-      <c r="E1" s="21" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>awayWin</t>
         </is>
       </c>
-      <c r="F1" s="21" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>bothToScore</t>
         </is>
       </c>
-      <c r="H1" s="21" t="inlineStr">
+      <c r="H1" s="22" t="inlineStr">
         <is>
           <t>date</t>
         </is>
@@ -6224,17 +6247,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23.34%</t>
+          <t>20.38%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.74%</t>
+          <t>26.04%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44.73%</t>
+          <t>50.66%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -6244,7 +6267,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>70.56%</t>
+          <t>63.30%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6266,17 +6289,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>59.56%</t>
+          <t>57.55%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.45%</t>
+          <t>9.37%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36.05%</t>
+          <t>32.30%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -6286,7 +6309,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>44.48%</t>
+          <t>42.36%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6308,17 +6331,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24.85%</t>
+          <t>44.89%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.23%</t>
+          <t>20.47%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36.40%</t>
+          <t>36.93%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -6328,7 +6351,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>28.21%</t>
+          <t>30.02%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6350,17 +6373,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28.10%</t>
+          <t>22.39%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.07%</t>
+          <t>25.60%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>42.41%</t>
+          <t>36.43%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -6370,7 +6393,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>74.11%</t>
+          <t>63.31%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6392,17 +6415,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43.81%</t>
+          <t>36.04%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35.39%</t>
+          <t>36.44%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>16.87%</t>
+          <t>26.17%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -6412,7 +6435,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>47.59%</t>
+          <t>49.73%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6434,17 +6457,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>39.71%</t>
+          <t>50.94%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.99%</t>
+          <t>12.07%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>32.73%</t>
+          <t>30.12%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -6454,7 +6477,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>63.85%</t>
+          <t>48.75%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6476,17 +6499,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>38.86%</t>
+          <t>31.19%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.08%</t>
+          <t>27.67%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.64%</t>
+          <t>30.26%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6496,7 +6519,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>72.01%</t>
+          <t>65.82%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6518,17 +6541,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>37.94%</t>
+          <t>40.11%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>36.10%</t>
+          <t>38.04%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16.22%</t>
+          <t>16.36%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -6538,7 +6561,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30.36%</t>
+          <t>35.60%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6560,17 +6583,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>49.61%</t>
+          <t>57.15%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.26%</t>
+          <t>4.20%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>43.87%</t>
+          <t>42.66%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -6580,7 +6603,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>44.84%</t>
+          <t>46.51%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6602,17 +6625,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>65.92%</t>
+          <t>65.77%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.90%</t>
+          <t>5.77%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.68%</t>
+          <t>35.28%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -6622,7 +6645,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>46.62%</t>
+          <t>44.10%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6644,17 +6667,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>76.90%</t>
+          <t>65.48%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.94%</t>
+          <t>6.83%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33.39%</t>
+          <t>33.25%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -6664,7 +6687,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>59.75%</t>
+          <t>53.77%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -6686,17 +6709,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>61.90%</t>
+          <t>74.20%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.99%</t>
+          <t>12.71%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30.26%</t>
+          <t>14.76%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -6706,7 +6729,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18.28%</t>
+          <t>17.43%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6728,17 +6751,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>63.72%</t>
+          <t>56.03%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25.46%</t>
+          <t>29.87%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12.83%</t>
+          <t>16.05%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -6748,7 +6771,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>38.90%</t>
+          <t>42.17%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6770,17 +6793,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>42.10%</t>
+          <t>33.56%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19.64%</t>
+          <t>24.40%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>37.08%</t>
+          <t>31.25%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -6790,7 +6813,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>26.90%</t>
+          <t>26.73%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -6812,17 +6835,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>38.09%</t>
+          <t>40.27%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25.77%</t>
+          <t>28.35%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31.74%</t>
+          <t>27.90%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -6832,7 +6855,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>37.01%</t>
+          <t>33.90%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6854,17 +6877,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>26.61%</t>
+          <t>39.14%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>41.50%</t>
+          <t>27.21%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25.29%</t>
+          <t>29.71%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -6874,7 +6897,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>29.87%</t>
+          <t>32.56%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -6896,17 +6919,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15.87%</t>
+          <t>19.46%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>73.30%</t>
+          <t>65.07%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9.88%</t>
+          <t>12.33%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -6916,7 +6939,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22.61%</t>
+          <t>27.68%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -6938,17 +6961,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>36.59%</t>
+          <t>55.09%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13.23%</t>
+          <t>18.91%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33.16%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -6958,7 +6981,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>75.98%</t>
+          <t>77.80%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -6980,17 +7003,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>78.00%</t>
+          <t>49.21%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.57%</t>
+          <t>9.35%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.58%</t>
+          <t>32.21%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -7000,7 +7023,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>54.65%</t>
+          <t>52.30%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">

--- a/predicoes.xlsx
+++ b/predicoes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calculo" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,8 @@
     <sheet name="14-03-2022" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="15-03-2022" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="16-03-2022" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="17-03-2022" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="17-03-2022" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="18-03-2022" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
@@ -626,7 +627,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6187,6 +6188,721 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16.7109375" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="13.140625" customWidth="1" min="3" max="3"/>
+    <col width="11.85546875" customWidth="1" min="4" max="4"/>
+    <col width="12.5703125" customWidth="1" min="5" max="5"/>
+    <col width="12.7109375" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="21" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="B1" s="21" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="C1" s="21" t="inlineStr">
+        <is>
+          <t>homeWin</t>
+        </is>
+      </c>
+      <c r="D1" s="21" t="inlineStr">
+        <is>
+          <t>draw</t>
+        </is>
+      </c>
+      <c r="E1" s="21" t="inlineStr">
+        <is>
+          <t>awayWin</t>
+        </is>
+      </c>
+      <c r="F1" s="21" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="G1" s="21" t="inlineStr">
+        <is>
+          <t>bothToScore</t>
+        </is>
+      </c>
+      <c r="H1" s="21" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Al-Faisaly</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Al-Fateh</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>0.1584</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>0.7332</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>0.0989</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>0.2263</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Damac FC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0.1323</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>0.7598</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AS Monaco</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>0.2334</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0.2474</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>0.4473</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>0.7056</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bayer 04 Leverkusen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0.5956</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.08450000000000001</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>0.3605</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0.4448</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FK Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>0.2485</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.3123</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0.2821</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0.1407</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0.7411</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bodø/Glimt</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>0.3794</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>0.1622</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0.3036</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FC Basel</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olympique de Marseille</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>0.4961</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>0.08260000000000001</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>0.4387</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0.4484</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FC København</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>0.6592</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>0.4662</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Stade Rennais</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>0.0394</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>0.3339</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>19:45</t>
+        </is>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>0.5975</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Al-Nassr</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Al-Fayha</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>0.0457</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>0.5465</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>0.2661</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>21:45</t>
+        </is>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>0.2987</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Real Betis Balompié</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>0.4381</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>0.1687</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Olympique Lyonnais</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>0.3971</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>0.1899</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>0.3273</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>0.6385</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>0.3886</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>0.2308</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>0.2364</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>0.7201</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FK Partizan</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>0.1099</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>0.3026</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>0.1828</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>KAA Gent</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>0.6372</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>0.2546</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>0.1283</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LASK</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>0.1964</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>0.3708</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>0.3809</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>0.2577</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>0.3174</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>0.3701</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>17/03/2022</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6237,153 +6953,153 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AS Monaco</t>
+          <t>Wolverhampton</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20.38%</t>
+          <t>82.48%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.04%</t>
+          <t>45.58%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>50.66%</t>
+          <t>1.63%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>63.30%</t>
+          <t>70.85%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bayer 04 Leverkusen</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>57.55%</t>
+          <t>44.57%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.37%</t>
+          <t>27.72%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>32.30%</t>
+          <t>19.90%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>42.36%</t>
+          <t>96.85%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FK Crvena zvezda</t>
+          <t>VfL Bochum</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>44.89%</t>
+          <t>31.50%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.47%</t>
+          <t>46.22%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36.93%</t>
+          <t>15.32%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30.02%</t>
+          <t>83.67%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22.39%</t>
+          <t>76.77%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.60%</t>
+          <t>5.66%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36.43%</t>
+          <t>15.60%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -6393,39 +7109,39 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>63.31%</t>
+          <t>39.98%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Real Betis Balompié</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>36.04%</t>
+          <t>4.28%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.44%</t>
+          <t>14.76%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.17%</t>
+          <t>78.25%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -6435,39 +7151,39 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>49.73%</t>
+          <t>96.44%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Olympique Lyonnais</t>
+          <t>Saint-Étienne</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>50.94%</t>
+          <t>24.51%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.07%</t>
+          <t>14.28%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30.12%</t>
+          <t>62.36%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -6477,375 +7193,375 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>48.75%</t>
+          <t>68.73%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>FC Vizela</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>FC Famalicão</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31.19%</t>
+          <t>50.46%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27.67%</t>
+          <t>27.81%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30.26%</t>
+          <t>19.95%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>65.82%</t>
+          <t>52.80%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>SC Heerenveen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bodø/Glimt</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>40.11%</t>
+          <t>51.40%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>38.04%</t>
+          <t>3.18%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16.36%</t>
+          <t>64.72%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>35.60%</t>
+          <t>22.98%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Olympique de Marseille</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>57.15%</t>
+          <t>24.37%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.20%</t>
+          <t>12.65%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>42.66%</t>
+          <t>56.09%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>46.51%</t>
+          <t>46.39%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FC København</t>
+          <t>Çaykur Rizespor</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>65.77%</t>
+          <t>20.48%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.77%</t>
+          <t>4.03%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>35.28%</t>
+          <t>75.01%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>44.10%</t>
+          <t>34.97%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Stade Rennais</t>
+          <t>Royale Union Saint-Gilloise</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>KV Oostende</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>65.48%</t>
+          <t>84.32%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.83%</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33.25%</t>
+          <t>5.58%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>53.77%</t>
+          <t>31.19%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Al-Merrikh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FK Partizan</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>74.20%</t>
+          <t>51.52%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.71%</t>
+          <t>5.36%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14.76%</t>
+          <t>56.26%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17.43%</t>
+          <t>52.29%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KAA Gent</t>
+          <t>AmaZulu FC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Raja Club Athletic</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>56.03%</t>
+          <t>47.71%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29.87%</t>
+          <t>13.79%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16.05%</t>
+          <t>39.73%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>42.17%</t>
+          <t>62.12%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LASK</t>
+          <t>ES Sétif</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>Horoya</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>33.56%</t>
+          <t>54.78%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24.40%</t>
+          <t>17.20%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>31.25%</t>
+          <t>25.83%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>26.73%</t>
+          <t>58.15%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>40.27%</t>
+          <t>68.79%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28.35%</t>
+          <t>15.37%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27.90%</t>
+          <t>10.40%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -6855,180 +7571,936 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>33.90%</t>
+          <t>85.71%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Erzgebirge Aue</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>39.14%</t>
+          <t>16.01%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27.21%</t>
+          <t>21.82%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29.71%</t>
+          <t>57.03%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>32.56%</t>
+          <t>49.84%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Al-Faisaly</t>
+          <t>FC St. Pauli</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Al-Fateh</t>
+          <t>1. FC Heidenheim</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19.46%</t>
+          <t>46.98%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>65.07%</t>
+          <t>21.43%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12.33%</t>
+          <t>23.01%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27.68%</t>
+          <t>6.80%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Damac FC</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>55.09%</t>
+          <t>71.57%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18.91%</t>
+          <t>6.06%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15.00%</t>
+          <t>19.73%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>77.80%</t>
+          <t>59.51%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Al-Nassr</t>
+          <t>Almere City FC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Al-Fayha</t>
+          <t>FC Den Bosch</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>49.21%</t>
+          <t>78.41%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9.35%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>32.21%</t>
+          <t>16.30%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>24.63%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>56.43%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>53.43%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.61%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>37.58%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>25.77%</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.75%</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.97%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>90.45%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jong Ajax</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>47.26%</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.24%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.94%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>16.21%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jong FC Utrecht</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>47.85%</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.81%</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.33%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>89.99%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jong PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Roda JC Kerkrade</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6.34%</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.55%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>58.38%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>32.22%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SC Telstar</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FC Dordrecht</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>62.87%</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.42%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3.98%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>57.82%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TOP Oss</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>44.94%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.42%</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>51.75%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>93.51%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ankara Keçiörengücü</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>23.91%</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>37.99%</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>31.78%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>39.98%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Newcastle Jets</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>53.71%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.12%</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.10%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>29.66%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NK Hrvatski Dragovoljac</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NK Istra 1961</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>31.08%</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.74%</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>45.29%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>79.73%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>64.86%</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.61%</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>33.82%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>53.14%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Wisła Kraków</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>77.98%</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.30%</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>19.17%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>50.39%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Newport County</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hartlepool United</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>90.53%</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.15%</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>6.55%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>21:45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>39.23%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sagan Tosu</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>68.82%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.97%</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>37.35%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>66.40%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Al Tai</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Al-Shabab</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>13.06%</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>37.57%</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>44.72%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>87.19%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Al-Ittihad</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>68.93%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.93%</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>8.85%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>20.65%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Al-Hilal Saudi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Al-Ahli Saudi</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>54.63%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>36.40%</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10.73%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>19:50</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>52.30%</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>17/03/2022</t>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>38.25%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Aldosivi</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Patronato de Paraná</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>44.66%</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18.37%</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>34.99%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>69.50%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>18/03/2022</t>
         </is>
       </c>
     </row>
